--- a/02_programme_task/xlsx_out/41.Mark.xlsx
+++ b/02_programme_task/xlsx_out/41.Mark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,4771 +453,8287 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The beginning of the gospel of Jesus Christ, the Son of God. 2</t>
+          <t>The Gospel According to Mark John the Baptist Prepares the Way</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark 1:3</t>
+          <t>Mark 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>the voice of one crying in the wilderness: - Prepar16 e the way of the Lord, - make his paths straight, 4</t>
+          <t>The beginning of the gospel of Jesus Christ, a the Son of God.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark 1:5</t>
+          <t>Mark 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>And all the country of Judea and all Jerusalem were going out to him and were being baptized by him in the river Jordan, confessing their sins. 6</t>
+          <t>b As it is written in Isaiah the prophet, c Behold, I send my messenger before your face, who will prepare your way,</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mark 1:6</t>
+          <t>Mark 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Now John was clothed with camel's hair and wore a leather belt around his waist and ate locusts and wild honey. 7</t>
+          <t>d the voice of one crying in the wilderness: e Prepare the way of the Lord, make his paths straight,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mark 1:7</t>
+          <t>Mark 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>And he preached, saying, After me comes he who is mightier than I, the strap of whose sandals I am not worthy to stoop down and untie. 8</t>
+          <t>f John appeared, baptizing in g the wilderness and proclaiming h a baptism of i repentance j for the forgiveness of sins.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark 1:10</t>
+          <t>Mark 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>And when he came up out of the water, immediately he saw the heavens being torn open and the Spirit descending on him like a dove.</t>
+          <t>And all the country of Judea and all Jerusalem were going out to him and were being baptized by him in the river Jordan, k confessing their sins.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark 1:11</t>
+          <t>Mark 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>And a voice came from heaven, You are my beloved Son; with you I am well pleased. The Temptation of Jesus</t>
+          <t>Now John was l clothed with camel s hair and l wore a leather belt around his waist and ate m locusts and n wild honey.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mark 1:15</t>
+          <t>Mark 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>and saying, The time is fulfilled, and he kingdom of God is at hand; 1 epent and believe in the gospel. Jesus Calls the First Disciples</t>
+          <t>And he preached, saying, o After me comes he who is mightier than I, the strap of whose sandals I am not worthy to stoop down and untie.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mark 1:17</t>
+          <t>Mark 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>And Jesus said to them, Follow me, and I will make you become ishers of men.</t>
+          <t>p I have baptized you with water, but q he will baptize you with the Holy Spirit. The Baptism of Jesus</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mark 1:18</t>
+          <t>Mark 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>And immediately they left their nets and followed him.</t>
+          <t>r In those days Jesus s came from Nazareth of Galilee and was baptized by John in the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark 1:19</t>
+          <t>Mark 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>And going on a little farther, he saw James the son of Zebedee and John his brother, who were in their boat mending the nets.</t>
+          <t>And when he came up out of the water, immediately he t saw u the heavens being torn open v and the Spirit descending on him like a dove.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mark 1:20</t>
+          <t>Mark 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>And immediately he called them, and they left their father Zebedee in the boat with the hired servants and followed him. Jesus Heals a Man with an Unclean Spirit</t>
+          <t>And w a voice came from heaven, x You are my beloved Son; with you I am well pleased. The Temptation of Jesus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mark 1:22</t>
+          <t>Mark 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>And they were astonished at his teaching, for he taught them as one who had authority, and not as the scribes.</t>
+          <t>y The Spirit immediately drove him out into the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mark 1:23</t>
+          <t>Mark 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>And immediately there was in their synagogue a man with an unclean spirit. And he cried out,</t>
+          <t>y And he was in the wilderness forty days, being z tempted by a Satan. And he was with the wild animals, and b the angels were ministering to him. Jesus Begins His Ministry</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mark 1:25</t>
+          <t>Mark 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>But Jesus rebuked him, saying, Be silent, and come out of him!</t>
+          <t>c Now after John was arrested, Jesus d came into Galilee, proclaiming the gospel of God,</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mark 1:26</t>
+          <t>Mark 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>And the unclean spirit, convulsing him and crying out with a loud voice, came out of him.</t>
+          <t>and saying, e The time is fulfilled, and f the kingdom of God is at hand;</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mark 1:27</t>
+          <t>Mark 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>And they were all amazed, so that they questioned among themselves, saying, What is this A new teaching with authority! He commands even the unclean spirits, and they obey him.</t>
+          <t>g repent and believe in the gospel. Jesus Calls the First Disciples</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mark 1:28</t>
+          <t>Mark 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And at once his fame spread everywhere throughout all the surrounding region of Galilee. Jesus Heals Many</t>
+          <t>h Passing alongside the Sea of Galilee, he saw Simon and Andrew the brother of Simon casting a net into the sea, for they were fishermen.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mark 1:30</t>
+          <t>Mark 1:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Now Simon's mother- in- law lay ill with a fever, and immediately they told him about her.</t>
+          <t>And Jesus said to them, Follow me, and I will make you become i fishers of men.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mark 1:31</t>
+          <t>Mark 1:18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>And he came and took her by the hand and lifted her up, and the fever left her, and she began to serve them.</t>
+          <t>And immediately they left their nets and followed him.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mark 1:32</t>
+          <t>Mark 1:19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>That evening at sundown they brought to him all who were sick or oppressed by demons.</t>
+          <t>And going on a little farther, he saw James the son of Zebedee and John his brother, who were in their boat mending the nets.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mark 1:33</t>
+          <t>Mark 1:20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>And the whole city was gathered together at the door.</t>
+          <t>And immediately he called them, and they left their father Zebedee in the boat with the hired servants and followed him. Jesus Heals a Man with an Unclean Spirit</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mark 1:36</t>
+          <t>Mark 1:21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>And Simon and those who were with him searched for him,</t>
+          <t>j And they went into Capernaum, and immediately k on the Sabbath l he entered the synagogue and was teaching.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mark 1:37</t>
+          <t>Mark 1:22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>and they found him and said to him, Everyone is looking for you.</t>
+          <t>And m they were astonished at his teaching, m for he taught them as one who had authority, and not as the scribes.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mark 1:38</t>
+          <t>Mark 1:23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And he said to them, Let us go on to the next towns, that I may preach there also, for hat is why I came out.</t>
+          <t>And immediately there was in their synagogue a man with an unclean spirit. And he cried out,</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mark 1:41</t>
+          <t>Mark 1:24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Moved with pity, he stretched out his hand and touched him and said to him, I will; be clean.</t>
+          <t>n What have you to do with us, Jesus of Nazareth? Have you come to destroy us? o I know who you ar e p the Holy One of God.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mark 1:42</t>
+          <t>Mark 1:25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And immediately the leprosy left him, and he was made clean.</t>
+          <t>But Jesus q rebuked him, saying, Be silent, and come out of him!</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mark 1:43</t>
+          <t>Mark 1:26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>And Jesu16's sternly charged him and sent him away at once,</t>
+          <t>And the unclean spirit, r convulsing him and s crying out with a loud voice, came out of him.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mark 1:44</t>
+          <t>Mark 1:27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>and said to him, See that you say nothing to anyone, but go, how yourself to the priest and ffer for your cleansing what Moses commanded, or a proof to them.</t>
+          <t>And they were all t amazed, so that they questioned among themselves, saying, What is this? u A new teaching with authority! He commands even the unclean spirits, and they obey him.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mark 2:1</t>
+          <t>Mark 1:28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>And when he returned to Capernaum after some days, it was reported that he was at home. 2</t>
+          <t>And at once his fame spread everywhere throughout all the surrounding region of Galilee. Jesus Heals Many</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mark 2:2</t>
+          <t>Mark 1:29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>And many were gathered together, so that there was no more room, not even at the door. And he was preaching the word to them. 3</t>
+          <t>v And immediately h e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mark 2:4</t>
+          <t>Mark 1:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>And when they could not get near him because of the crowd, they removed the roof above him, and when they had made an opening, they let down the bed on which the paralytic lay. 5</t>
+          <t>w left the synagogue and entered the house of Simon and Andrew, with James and John.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mark 2:5</t>
+          <t>Mark 1:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And when Jesus saw their faith, he said to the paralytic, Son, our sins are forgiven. 6</t>
+          <t>Now x Simon s mother-in-law lay ill with a fever, and immediately they told him about her.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mark 2:6</t>
+          <t>Mark 1:31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Now some of the scribes were sitting there, questioning in their hearts, 7</t>
+          <t>And he came and y took her by the hand and lifted her up, and the fever left her, and she began to serve them.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mark 2:7</t>
+          <t>Mark 1:32</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Why does this man speak like that He is blaspheming! Who can forgive sins but God alone 8</t>
+          <t>That evening at sundown they brought to him all who were sick or z oppressed by demons.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mark 2:8</t>
+          <t>Mark 1:33</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And immediately Jesus, perceiving in his spirit that they thus questioned within themselves, said to them, Why do you question these things in your hearts 9</t>
+          <t>And the whole city was gathered together at the door.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mark 2:12</t>
+          <t>Mark 1:34</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>And he rose and immediately picked up his bed and went out before them all, so that they were all amazed and glorified God, saying, We never saw anything like this! Jesus Calls Levi</t>
+          <t>a And he healed many who were sick with various diseases, and cast out many demons. And b he would not permit the demons to speak, because they knew him. Jesus Preaches in Galilee</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mark 2:13</t>
+          <t>Mark 1:35</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>He went out again beside the sea, and all the crowd was coming to him, and he was teaching them.</t>
+          <t>c And rising very early in the morning, while it was still dark, he departed and went out to a desolate place, and d there he prayed.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mark 2:15</t>
+          <t>Mark 1:36</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>And as he reclined at table in his house, many tax collectors and sinners were reclining with Jesus and his disciples, for there were many who followed him.</t>
+          <t>And Simon and those who were with him searched for him,</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mark 2:16</t>
+          <t>Mark 1:37</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>And the scribes o16 f the Pharisees, when they saw that he was eating with sinners and tax collectors, said to his disciples, Why does he ea16 t with tax collectors and sinners</t>
+          <t>and they found him and said to him, e Everyone is looking for you.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mark 2:17</t>
+          <t>Mark 1:38</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>And when Jesus heard it, he said to them, Those who are well have no need of a physician, but those who are sick. I me not to call the righteous, ut sinners. A Question About Fasting</t>
+          <t>And he said to them, Let us go on to the next towns, that I may preach there also, for f that is why I came out.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mark 2:18</t>
+          <t>Mark 1:39</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Now John's disciples and the Pharisees were fasting. And people came and said to him, Why do John's disciples and the disciples of the Pharisees fast, but your disciples do not fast</t>
+          <t>g And h he went throughout all Galilee, preaching in their synagogues and casting out demons. Jesus Cleanses a Leper</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mark 2:19</t>
+          <t>Mark 1:40</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>And Jesus said to them, Can the wedding guests fast while the bridegroom is with them As long as they have the bridegroom with them, they cannot fast.</t>
+          <t>i And a lepe r came to him, imploring him, and j kneeling said to him, k If you will, you can make me clean.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mark 2:24</t>
+          <t>Mark 1:41</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>And the Pharisees were saying to him, Look, why are they doing what is not lawful on the Sabbath</t>
+          <t>Moved with pity, he stretched out his hand and touched him and said to him, I will; be clean.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mark 2:25</t>
+          <t>Mark 1:42</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>And he said to them, Have you never read hat David did, when he was in need and was hungry, he and those who were with him:</t>
+          <t>And immediately the leprosy left him, and he was made clean.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mark 2:27</t>
+          <t>Mark 1:43</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And he said to them, The Sabbath was made for man, ot man for the Sabbath.</t>
+          <t>And l Jesu s sternly charged him and sent him away at once,</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mark 3:2</t>
+          <t>Mark 1:44</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>And they watched Jesus, to see whether he would heal him on the Sabbath, so that they might accuse him. 3</t>
+          <t>and said to him, m See that you say nothing to anyone, but go, n show yourself to the priest and o offer for your cleansing what Moses commanded, p for a proof to them.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mark 3:3</t>
+          <t>Mark 1:45</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>And he said to the man with the withered hand, Come here. 4</t>
+          <t>q But he went out and began to talk freely about it, and to spread the news, so that Jesus could no long?er openly enter r a town, but was out in r desolate places, and s people were coming to him from every quarter. Jesus Heals a Paralytic</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mark 3:4</t>
+          <t>Mark 2:1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>And he said to them, Is it lawful on the Sabbath to do good or to do harm, to save life or to kill But they were silent. 5</t>
+          <t>And when he returned to t Capernaum after some days, it was reported that he was at home.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mark 3:5</t>
+          <t>Mark 2:2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>And he looked around at them with anger, grieved at their hardness of heart, and said to the man, Stretch out your hand. He stretched it out, and his hand was restored. 6</t>
+          <t>And many were gathered together, so that there was no more room, not even at the door. And he was preaching the word to them.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mark 3:8</t>
+          <t>Mark 2:3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>and Jerusalem and Idumea and from beyond the Jordan and from around Tyre and Sidon. When the great crowd heard all that he was doing, they came to him. 9</t>
+          <t>u And they came, bringing to him a paralytic carried by four men.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mark 3:9</t>
+          <t>Mark 2:4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>And he told his disciples to have a boat ready for him because of the crowd, lest they crush him,</t>
+          <t>And when they could not get near him because of the crowd, v they removed the roof above him, and when they had made an opening, they let down the bed on which the paralytic lay.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mark 3:10</t>
+          <t>Mark 2:5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>for he had healed many, so that all who had diseases pressed around him to touch him.</t>
+          <t>And when Jesus w saw their faith, he said to the paralytic, Son, x your sins are forgiven.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mark 3:12</t>
+          <t>Mark 2:6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>And he strictly ordered them not to make him known. The Twelve Apostles</t>
+          <t>Now some of the scribes were sitting there, questioning in their hearts,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mark 3:16</t>
+          <t>Mark 2:7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>He appointed the twelve: Simon (to whom he gave the name Peter);</t>
+          <t>Why does this man speak like that? y He is blaspheming! z Who can forgive sins but God alone?</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mark 3:18</t>
+          <t>Mark 2:8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Andrew, and Philip, and Bartholomew, and Matthew, and Thomas, and James the son of Alphaeus, and Thaddaeus, and Simon the Zealot,</t>
+          <t>And immediately Jesus, a perceiving in his spirit that they thus questioned within themselves, said to them, Why do you question these things in your hearts?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mark 3:19</t>
+          <t>Mark 2:9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>and Judas Iscariot, who betrayed him.</t>
+          <t>Which is easier, to say to the paralytic, Your sins are forgiven, or to say, Rise, take up your bed and walk?</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mark 3:20</t>
+          <t>Mark 2:10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Then he went home, and the crowd gathered again, so that they could not even eat.</t>
+          <t>But that you may know that b the Son of Man has authority on earth to forgive sins he said to the paralyti c</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mark 3:22</t>
+          <t>Mark 2:11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>And the scribes who came down from Jerusalem were saying, He is possessed by Beelzebul, and by the prince of demons he casts out the demons.</t>
+          <t>I say to you, rise, pick up your bed, and go home.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mark 3:30</t>
+          <t>Mark 2:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>for they were saying, He has an unclean spirit. Jesus Mother and Brothers</t>
+          <t>And he rose and immediately picked up his bed and went out before them all, so that they were all amazed and c glorified God, saying, We never saw anything like this! Jesus Calls Levi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mark 3:32</t>
+          <t>Mark 2:13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>And a crowd was sitting around him, and they said to him, Your mother and your brother's are outside, seeking you.</t>
+          <t>He went out again beside the sea, and d all the crowd was coming to him, and he was teaching them.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mark 3:33</t>
+          <t>Mark 2:14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>And he answered them, Who are my mother and my brothers</t>
+          <t>e And as he passed by, he saw f Levi the son of Alphaeus sitting at the tax booth, and he said to him, Follow me. And he rose and followed him.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mark 3:34</t>
+          <t>Mark 2:15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>And looking about at those who sat around him, he said, Here are my mother and my brothers!</t>
+          <t>And as he reclined at table in his house, many g tax collectors and sinners were reclining with Jesus and his disciples, for there were many who followed him.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mark 4:1</t>
+          <t>Mark 2:16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Again he began to teach beside the sea. And a very large crowd gathered about him, so that he got into a boat and sat in it on the sea, and the whole crowd was beside the sea on the land. 2</t>
+          <t>And h the scribes o f the Pharisees, when they saw that he was eating with sinners and tax collectors, said to his disciples, g Why does he ea t with tax collectors and sinners?</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mark 4:2</t>
+          <t>Mark 2:17</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>And he was teaching them many things in parables, and in his teaching he said to them: 3</t>
+          <t>And when Jesus heard it, he said to them, Those who are well have no need of a physician, but those who are sick. i I came not to call the righteous, j but sinners. A Question About Fasting</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mark 4:9</t>
+          <t>Mark 2:18</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>And he said, He who has ears to hear, let him hear. The Purpose of the Parables</t>
+          <t>Now k John s disciples and the Pharisees were fasting. And people came and said to him, l Why do John s disciples and m the disciples of the Pharisees fast, but your disciples do not fast?</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mark 4:101600</t>
+          <t>Mark 2:19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>And when he was alone, those around him with the twelve asked him about the parables.</t>
+          <t>And Jesus said to them, n Can the wedding guests fast while the bridegroom is with them? As long as they have the bridegroom with them, they cannot fast.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mark 4:111600</t>
+          <t>Mark 2:20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>And he said to them, To you has been given he secret of the kingdom of God, but for hose outside everything is in parables,</t>
+          <t>o The days will come when the bridegroom is taken away from them, and p then they will fast in that day.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Mark 4:24</t>
+          <t>Mark 2:21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>And he said to them, Pay attention to what you hear: ith the measure you use, it will be measured to you, and still more will be added to you.</t>
+          <t>No one sews a piece of unshrunk cloth on an old garment. If he does, the patch tears away from it, the new from the old, and a worse tear is made.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mark 4:26</t>
+          <t>Mark 2:22</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>And he said, The kingdom of God is as if a man should scatter seed on the ground.</t>
+          <t>And no one puts new wine into old q wineskins. If he does, the wine will burst the skin s and the wine is destroyed, and so are the skins. But new wine is for fresh wineskins. Jesus Is Lord of the Sabbath</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mark 4:34</t>
+          <t>Mark 2:23</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>He did not speak to them without a parable, but privately to his own disciples he explained everything. Jesus Calms a Storm</t>
+          <t>r One Sabbath he was going through the grainfields, and as they made their way, his disciples s began to pluck heads of grain.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mark 4:36</t>
+          <t>Mark 2:24</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>And leaving the crowd, they took him with them in the boat, just as he was. And other boats were with him.</t>
+          <t>And the Pharisees were saying to him, Look, t why are they doing u what is not lawful on the Sabbath?</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mark 4:37</t>
+          <t>Mark 2:25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>And a great windstorm arose, and the waves were breaking into the boat, so that the boat was already filling.</t>
+          <t>And he said to them, v Have you never read w what David did, when he was in need and was hungry, he and those who were with him:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mark 4:38</t>
+          <t>Mark 2:26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>But he was in the stern, asleep on the cushion. And they woke him and said to him, Teacher, do you not care that we are perishing</t>
+          <t>how he entered the house of God, in the time of</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mark 4:39</t>
+          <t>Mark 2:27</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>And he awoke and rebuked the wind and said to the sea, Peace! Be still! And the wind ceased, and there was a great calm.</t>
+          <t>x Abiathar the high priest, and ate y the bread of the Presence, which it is not lawful for any but the priests to eat, and also gave it to those who were with him?</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mark 4:40</t>
+          <t>Mark 2:27</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>He said to them, Why are you o afraid Have you still no faith</t>
+          <t>And he said to them, z The Sabbath was made for man, a not man for the Sabbath.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mark 4:41</t>
+          <t>Mark 2:28</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>And they were filled with great fear and said to one another, Who then is this, that even the wind and the sea obey him Jesus Heals a Man with a Demon 5</t>
+          <t>So b the Son of Man is lord even of the Sabbath. A Man with a Withered Hand</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mark 5:2</t>
+          <t>Mark 2:29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>And when Jesu16's had stepped out of the boat, immediately there met him out of the tombs a man with an unclean spirit. 3</t>
+          <t>c Again d he entered the synagogue, and a man was there with a withered hand.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mark 5:4</t>
+          <t>Mark 3:2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>for he had often been bound with shackles and chains, but he wrenched the chains apart, and he broke the shackles in pieces. No one had the strength to subdue him. 5</t>
+          <t>And e they watched Jesus, to see whether he would heal him on the Sabbath, so that they might accuse him.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mark 5:5</t>
+          <t>Mark 3:3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Night and day among the tombs and on the mountains he was always crying out and cutting himself with stones. 6</t>
+          <t>And he said to the man with the withered hand, Come here.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mark 5:6</t>
+          <t>Mark 3:4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>And when he saw Jesus from afar, he ran and fell down before him. 7</t>
+          <t>And he said to them, f Is it lawful on the Sabbath to do good or to do harm, to save life or to kill? But they were silent.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mark 5:7</t>
+          <t>Mark 3:5</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>And crying out with a loud voice, he said, What have you to do with me, Jesus, Son of the Most High God I jure you by God, do not torment me. 8</t>
+          <t>And he g looked around at them with anger, grieved at h their hardness of heart, and said to the man, Stretch out your hand. i He stretched it out, and his hand was restored.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mark 5:8</t>
+          <t>Mark 3:6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>For he was saying to him, Come out of the man, you unclean spirit! 9</t>
+          <t>j The Pharisees went out and immediately j held counsel with k the Herodians against him, how to destroy him. A Great Crowd Follows Jesus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mark 5:9</t>
+          <t>Mark 3:7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>And Jesus asked him, What is your name He replied, My name is Legion, for we are many.</t>
+          <t>l Jesus withdrew with his disciples to the sea, and m a great crowd followed, from Galilee and Judea</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mark 5:10</t>
+          <t>Mark 3:8</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>And he begged him earnestly not to send them out of the country.</t>
+          <t>and Jerusalem and n Idumea and from beyond the Jordan and from around o Tyre and Sidon. When the great crowd heard all that he was doing, they came to him.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mark 5:11</t>
+          <t>Mark 3:9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Now a great herd of pigs was feeding there on the hillside,</t>
+          <t>And he told his disciples to p have a boat ready for him because of the crowd, lest they q crush him,</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mark 5:12</t>
+          <t>Mark 3:10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>and they begged him, saying, Send us to the pigs; let us enter them.</t>
+          <t>for r he had healed many, so that all who had s diseases pressed around him t to touch him.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mark 5:13</t>
+          <t>Mark 3:11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>So he gave them permission. And the unclean spirits came out and entered the pigs; and the herd, numbering about two thousand, rushed down the steep bank into the sea and drowned in the sea.</t>
+          <t>u And whenever the unclean spirits saw him, they v fell down before him and cried out, You are w the Son of God.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mark 5:14</t>
+          <t>Mark 3:12</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The herdsmen fled and told it in the city and in the country. And people came to see what it was that had happened.</t>
+          <t>And x he strictly ordered them not to make him known. The Twelve Apostles</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mark 5:15</t>
+          <t>Mark 3:13</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>And they came to Jesus and saw the demon- possesse16 d man, the one who had had the legion, sitting there, clothed and in his right mind, and they were afraid.</t>
+          <t>y And he went up on the mountain and called to him those z whom he desired, and they came to him.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mark 5:16</t>
+          <t>Mark 3:14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>And those who had seen it described to them what had happened to the demon- possessed man and to the pigs.</t>
+          <t>y And he appointed twelve so that they might be with him and he might send them out to preach</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mark 5:17</t>
+          <t>Mark 3:15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>And they began to beg Jesu16's to depart from their region.</t>
+          <t>y and have authority to cast out demons.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mark 5:18</t>
+          <t>Mark 3:16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>As he was getting into the boat, the man who had been possessed with demons begged him that he might be with him.</t>
+          <t>He appointed the twelve: a Simon;</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mark 5:19</t>
+          <t>Mark 3:17</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>And he did not permit him but said to him, Go home to your friends and ell them how much the Lord has done for you, and how he has had mercy on you.</t>
+          <t>c James the son of Zebedee and John the brother of James;</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mark 5:20</t>
+          <t>Mark 3:18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>And he went away and began to proclaim in the Decapolis how much Jesus had done for him, and everyone marveled. Jesus Heals a Woman and Jairus's Daughter</t>
+          <t>Andrew, and Philip, and Bartholomew, and d Matthew, and Thomas, and James the son of Alphaeus, and Thaddaeus, and Simon the Zealot,</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mark 5:21</t>
+          <t>Mark 3:19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>And when Jesus had crossed again in the boat to the other side, a great crowd gathered about him, and he was beside the sea.</t>
+          <t>and Judas Iscariot, who betrayed him.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mark 5:23</t>
+          <t>Mark 3:20</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>and implored him earnestly, saying, My little daughter is at the point of death. Come and lay your hands on her, so that she may be made well and live.</t>
+          <t>Then he went e home, and the crowd gathered again, f so that they could not even eat.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mark 5:24</t>
+          <t>Mark 3:21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>And he went with him. And a great crowd followed him and thronged about him.</t>
+          <t>g And when h his family heard it, they went out to seize him, for they were saying, He i is out of his mind. Blasphemy Against the Holy Spirit</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mark 5:25</t>
+          <t>Mark 3:22</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>And there was a woman who had had a discharge of blood for twelve years,</t>
+          <t>And j the scribes who came down from Jerusalem were saying, k He is possessed by Beelzebul, and by the prince of demons he casts out the demons.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mark 5:26</t>
+          <t>Mark 3:23</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>and who had suffered much under many physicians, and had spent all that she had, and was no better but rather grew worse.</t>
+          <t>l And he called them to him and said to them in parables, How can Satan cast out Satan?</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mark 5:27</t>
+          <t>Mark 3:24</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>She had heard the reports about Jesus and came up behind him in the crowd and touched his garment.</t>
+          <t>If a kingdom is divided against itself, that kingdom cannot stand.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mark 5:28</t>
+          <t>Mark 3:25</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>For she said, If I touch even his garments, I will be made well.</t>
+          <t>And if a house is divided against itself, that house will not be able to stand.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mark 5:30</t>
+          <t>Mark 3:26</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>And Jesus, perceiving in himself that power had gone out from him, immediately turned about in the crowd and said, Who touched my garments</t>
+          <t>And if Satan has risen up against himself and is divided, he cannot stand, but is coming to an end.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mark 5:31</t>
+          <t>Mark 3:27</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>And his disciples said to him, You see the crowd pressing around you, and yet you say, Who touched me</t>
+          <t>But m no one can enter a strong man s house and plunder his goods, unless he first binds the strong man. n Then indeed he may plunder his house.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mark 5:32</t>
+          <t>Mark 3:28</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>And he looked around to see who had done it.</t>
+          <t>o Truly, I say to you, all sins will be forgiven the children of man, and whatever blasphemies they utter,</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mark 5:33</t>
+          <t>Mark 3:29</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>But the woman, knowing what had happened to her, came in fear and trembling and fell down before him and told him the whole truth.</t>
+          <t>but whoever p blasphemes against the Holy Spirit never has forgiveness, but is guilty of an eternal sin</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mark 5:34</t>
+          <t>Mark 3:30</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>And he said to her, Daughter, our faith has made you well; o in peace, and be healed of your isease.</t>
+          <t>for they were saying, He has an unclean spirit. Jesus Mother and Brothers</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mark 5:35</t>
+          <t>Mark 3:31</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>While he was still speaking, there came from the ruler's house some who said, Your daughter is dead. Why trouble the Teacher any further</t>
+          <t>q And his mother and his r brothers came, and standing outside they sent to him and called him.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mark 5:36</t>
+          <t>Mark 3:32</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>But overhearin16 g what they said, Jesus said to the ruler of the synagogue, Do not fear, only believe.</t>
+          <t>And a crowd was sitting around him, and they said to him, Your mother and your brother s are outside, seeking you.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mark 5:37</t>
+          <t>Mark 3:33</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>And he allowed no one to follow him except Peter and James and John the brother of James.</t>
+          <t>And he answered them, Who are my mother and my brothers?</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mark 5:38</t>
+          <t>Mark 3:34</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>They came to the house of the ruler of the synagogue, and Jesu16's saw a commotion, people weeping and wailing loudly.</t>
+          <t>And s looking about at those who sat around him, he said, Here are my mother and my brothers!</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mark 5:39</t>
+          <t>Mark 3:35</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>And when he had entered, he said to them, Why are you making a commotion and weeping The child is not dead but leeping.</t>
+          <t>t For whoever u does the will of God, he is my brother and sister and mother. The Parable of the Sower</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mark 5:40</t>
+          <t>Mark 4:1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>And they laughed at him. But he put them all outside and took the child's father and mother and those who were with him and went in where the child was.</t>
+          <t>Again v he began to teach beside the sea. And a very large crowd gathered about him, w so that he got into a boat and sat in it on the sea, and the whole crowd was beside the sea on the land.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mark 5:42</t>
+          <t>Mark 4:2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>And immediately the girl got up and began walking (for she was twelve years of age), and they were immediately overcome with amazement.</t>
+          <t>And x he was teaching them many things in parables, and in his teaching he said to them:</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mark 5:43</t>
+          <t>Mark 4:3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>And he strictly charged them that no one should know this, and told them to give her something to eat. Jesus Rejected at Nazareth 6</t>
+          <t>Listen! Behold, y a sower went out to sow.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mark 6:2</t>
+          <t>Mark 4:4</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>And on the Sabbath he began to teach in the synagogue, and many who heard him were astonished, saying, Where did this man get these things What is the wisdom given to him How are such mighty works done by his hands 3</t>
+          <t>And as he sowed, some seed fell along the path, and the birds came and devoured it.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Mark 6:4</t>
+          <t>Mark 4:5</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>And Jesus said to them, A prophet is not without honor, except in his hometown and among his relatives and in his own household. 5</t>
+          <t>Other seed fell on rocky ground, where it did not have much soil, and immediately it sprang up, since it had no depth of soil.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mark 6:5</t>
+          <t>Mark 4:6</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>And he could do no mighty work there, except that he laid his hands on a few sick people and healed them. 6</t>
+          <t>And z when the sun rose, it was scorched, and since it had no root, a it withered away.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mark 6:6</t>
+          <t>Mark 4:7</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>And he marveled because of their unbelief. And he went about among the villages teaching. Jesus Sends Out the Twelve Apostles 7</t>
+          <t>Other seed fell among b thorns, and the thorns grew up and choked it, and it yielded no grain.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mark 6:8</t>
+          <t>Mark 4:8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>He charged them to take nothing for their journey except a staf f no bread, no bag, no money in their belt16 s16 9</t>
+          <t>And other seeds fell into good soil and produced grain, growing up and increasing and yielding thirtyfold and sixtyfold and c a hundredfold.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mark 6:9</t>
+          <t>Mark 4:9</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>but to wear sandals and not put on two tunics.</t>
+          <t>And he said, d He who has ears to hear, let him hear. The Purpose of the Parables</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mark 6:10</t>
+          <t>Mark 4:10</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>And he said to them, Whenever you enter a house, stay there until you depart from there.</t>
+          <t>And e when he was alone, those around him with the twelve asked him about the parables.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Mark 6:16</t>
+          <t>Mark 4:11</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>But when Herod heard of it, he said, John, whom I beheaded, has been raised.</t>
+          <t>And he said to them, f To you has been given g the secret of the kingdom of God, but for h those outside everything is in parables,</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mark 6:19</t>
+          <t>Mark 4:12</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>And Herodias had a grudge against him and wanted to put him to death. But she could not,</t>
+          <t>i so that they j may indeed see but not perceive, and may indeed hear but not understand, lest they k should turn and be forgiven.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Mark 6:20</t>
+          <t>Mark 4:13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>for Herod feared John, knowing that he was a righteous and holy man, and he kept him safe. When he heard him, he was greatly perplexed, and yet he heard him gladly.</t>
+          <t>l And he said to them, Do you not understand this parable? How then will you understand all the parables?</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mark 6:21</t>
+          <t>Mark 4:14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>But an opportunity came when Herod on his birthday gave a banquet for his nobles and military commanders and the leading men of Galilee.</t>
+          <t>m The sower sows n the word.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mark 6:22</t>
+          <t>Mark 4:15</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>For when Herodias's daughter came in and danced, she pleased Herod and his guests. And the king said to the girl, Ask me for whatever you wish, and I will give it to you.</t>
+          <t>And these are the ones along the path, where the word is sown: when they hear, Satan immediately comes and takes away the word that is sown in them.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Mark 6:23</t>
+          <t>Mark 4:16</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>And he vowed to her, Whatever you ask me, I will give you, up to half of my kingdom.</t>
+          <t>And these are the ones sown on rocky ground: the ones who, when they hear the word, immediately receive it o with joy.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Mark 6:24</t>
+          <t>Mark 4:17</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>And she went out and said to her mother, For what should I ask And she said, The head of John the Baptist.</t>
+          <t>And they have no root in themselves, but p endure for a while; then, when tribulation or persecution arises on account of the word, immediately q they fall away.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mark 6:25</t>
+          <t>Mark 4:18</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>And she came in immediately with haste to the king and asked, saying, I want you to give me at once the head of John the Baptist on a platter.</t>
+          <t>And others are the ones sown among thorns. They are those who hear the word,</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Mark 6:26</t>
+          <t>Mark 4:19</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>And the king was exceedingly sorry, but because of his oaths and his guests he did not want to break his word to her.</t>
+          <t>but r the cares of s the world and t the deceitfulness of riches and the desires for other things enter in and choke the word, and it proves unfruitful.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Mark 6:27</t>
+          <t>Mark 4:20</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>And immediately the king sent an executioner with orders to bring John's head. He went and beheaded him in the prison</t>
+          <t>But those that were sown on the good soil are the ones who hear the word and accept it and u bear fruit, v thirtyfold and sixtyfold and a hundredfold. A Lamp Under a Basket</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mark 6:28</t>
+          <t>Mark 4:21</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>and brought his head on a platter and gave it to the girl, and the girl gave it to her mother.</t>
+          <t>w And he said to them, x Is a lamp brought in to be put under a basket, or under a bed, and not on a stand?</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mark 6:29</t>
+          <t>Mark 4:22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>When his disciples heard of it, they came and took his body and laid it in a tomb. Jesus Feeds the Five Thousand</t>
+          <t>y For nothing is hidden except to be made manifest; nor is anything secret except to come to light.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mark 6:31</t>
+          <t>Mark 4:23</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>And he said to them, Come away by yourselves to a desolate place and rest a while. For many were coming and going, and they had no leisure even to eat.</t>
+          <t>z If anyone has ears to hear, let him hear.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mark 6:33</t>
+          <t>Mark 4:24</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Now many saw them going and recognized them, and they ran there on foot from all the towns and got there ahead of them.</t>
+          <t>And he said to them, Pay attention to what you hear: a with the measure you use, it will be measured to you, and still more will be added to you.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mark 6:34</t>
+          <t>Mark 4:25</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>When he went ashore he saw a great crowd, and he had compassion on them, because they were like sheep without a shepherd. And he began to teach them many things.</t>
+          <t>b For to the one who has, more will be given, and from the one who has not, even what he has will be taken away. The Parable of the Seed Growing</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Mark 6:35</t>
+          <t>Mark 4:26</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>And when it grew late, his disciples came to him and said, This is a desolate place, and the hour is now late.</t>
+          <t>And he said, c The kingdom of God is as if a man should scatter seed on the ground.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mark 6:37</t>
+          <t>Mark 4:27</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>But he answered them, You give them something to eat. And they said to him, Shall we go and buy two hundred denari16 i worth of bread and give it to them to eat</t>
+          <t>He sleeps and rises night and day, and the seed sprouts and grows; d he knows not how.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mark 6:38</t>
+          <t>Mark 4:28</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>And he said to them, How many loaves do you have Go and see. And when they had found out, they said, Five, and two fish.</t>
+          <t>The earth produces by itself, first the blade, then the ear, then the full grain in the ear.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mark 6:39</t>
+          <t>Mark 4:29</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Then he commanded them all to sit down in groups on the green grass.</t>
+          <t>But when the grain is ripe, at once e he puts in the sickle, because the harvest has come. The Parable of the Mustard Seed</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mark 6:40</t>
+          <t>Mark 4:30</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>So they sat down in groups, by hundreds and by fifties.</t>
+          <t>f And he said, With what can we compare the kingdom of God, or what parable shall we use for it?</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mark 6:41</t>
+          <t>Mark 4:31</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>And taking the five loaves and the two fish, he looked up to heaven and said a blessing and broke the loaves and gave them to the disciples to set before the people. And he divided the two fish among them all.</t>
+          <t>It is like g a grain of mustard seed, which, when sown on the ground, is the smallest of all the seeds on earth,</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mark 6:42</t>
+          <t>Mark 4:32</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>And they all ate and were satisfied.</t>
+          <t>yet when it is sown it grows up and becomes larger than all the garden plants and puts out large branches, so that the birds of the air can make nests in its shade.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mark 6:43</t>
+          <t>Mark 4:33</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>And they took up twelve baskets full of broken pieces and of the fish.</t>
+          <t>h With many such parables he spoke i the word to them, j as they were able to hear it.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Mark 6:44</t>
+          <t>Mark 4:34</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>And those who ate the loaves were five thousand men. Jesus Walks on the Water</t>
+          <t>He did not speak to them k without a parable, but l privately to his own disciples he m explained everything. Jesus Calms a Storm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Mark 6:46</t>
+          <t>Mark 4:35</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>And after he had taken leave of them, he went up on the mountain to pray.</t>
+          <t>n On that day, when evening had come, he said to them, Let us go across to the other side.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Mark 6:47</t>
+          <t>Mark 4:36</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>And when evening came, the boat was out on the sea, and he was alone on the land.</t>
+          <t>And leaving the crowd, they took him with them in the boat, just as he was. And other boats were with him.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mark 6:48</t>
+          <t>Mark 4:37</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>And he saw that they were making headway painfully, for the wind was against them. And about the fourth watch of the nigh16 t he came to them, walking on the sea. He meant to pass by them,</t>
+          <t>And a great windstorm arose, and the waves o were breaking into the boat, so that the boat was already filling.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mark 6:49</t>
+          <t>Mark 4:38</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>but when they saw him walking on the sea they thought it was a ghost, and cried out,</t>
+          <t>But he was in the stern, asleep on the cushion. And they woke him and said to him, Teacher, do you not care that we are perishing?</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mark 6:50</t>
+          <t>Mark 4:39</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>for they all saw him and were terrified. But immediately he spoke to them and said, Take heart; it is I. Do not be afraid.</t>
+          <t>And he awoke and p rebuked the wind and said to the sea, Peace! Be still! And the wind ceased, and q there was a great calm.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mark 6:51</t>
+          <t>Mark 4:40</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>And he got into the boat with them, and the wind ceased. And they were utterly astounded,</t>
+          <t>He said to them, Why are you r so afraid? Have you still no faith?</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mark 6:52</t>
+          <t>Mark 4:41</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>for they did not understand about the loaves, but their hearts were hardened. Jesus Heals the Sick in Gennesaret</t>
+          <t>And they were filled with great fear and said to one another, s Who then is this, that even t the wind and the sea obey him? Jesus Heals a Man with a Demon</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mark 6:54</t>
+          <t>Mark 4:42</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>And when they got out of the boat, the people immediately recognized him</t>
+          <t>u They came to the other side of the sea, to the country of the Gerasenes.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Mark 6:55</t>
+          <t>Mark 5:2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>and ran about the whole region and began to bring the sick people on their beds to wherever they heard he was.</t>
+          <t>And when Jesu s had stepped out of the boat, immediately there met him out of the tombs a man with an unclean spirit.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mark 6:56</t>
+          <t>Mark 5:3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>And wherever he came, in villages, cities, or countryside, they laid the sick in the marketplaces and implored him that they might touch even the fringe of his garment. And as many as touched it were made well. Traditions and Commandments 7</t>
+          <t>v He lived among the tombs. And no one could bind him anymore, not even with a chain,</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mark 7:2</t>
+          <t>Mark 5:4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>they saw that some of his disciples ate with hands that were defiled, that is, unwashed. 3</t>
+          <t>for he had often been bound with shackles and chains, but he wrenched the chains apart, and he broke the shackles in pieces. No one had the strength to subdue him.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Mark 7:3</t>
+          <t>Mark 5:5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>(For the Pharisees and all the Jews do not eat unless they wash their hands properly, holding to the tradition of the elders, 4</t>
+          <t>Night and day among the tombs and on the mountains he was always crying out and cutting himself with stones.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Mark 7:4</t>
+          <t>Mark 5:6</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>and when they come from the marketplace, they do not eat unless they wash. And there are many other traditions that they observe, such as the washing of cups and pots and copper vessels and dining couches. ) 5</t>
+          <t>And when he saw Jesus from afar, he ran and w fell down before him.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Mark 7:5</t>
+          <t>Mark 5:7</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>And the Pharisees and the scribes asked him, Why do your disciples not walk according to the tradition of the elders, but eat with defiled hands 6</t>
+          <t>And x crying out with a loud voice, he said, What have you to do with me, Jesus, y Son of z the Most High God? a I adjure you by God, do not torment me.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Mark 7:6</t>
+          <t>Mark 5:8</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>And he said to them, Well did Isaiah prophesy of you ypocrites, as it is written, - This people honors me with their lips, - ut their heart is far from me; -</t>
+          <t>For he was saying to him, Come out of the man, you unclean spirit!</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Mark 7:7</t>
+          <t>Mark 5:9</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>n vain do they worship me, - eaching as octrines the commandments of men. 8</t>
+          <t>And Jesus asked him, What is your name? He replied, My name is b Legion, for we are many.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Mark 7:9</t>
+          <t>Mark 5:10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>And he said to them, You have a fine way of ejecting the commandment of God in order to establish your tradition!</t>
+          <t>And he begged him earnestly not to send them out of the country.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mark 7:14</t>
+          <t>Mark 5:11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>And he called the people to him again and said to them, Hear me, all of you, and understand:</t>
+          <t>Now a great herd of pigs was feeding there on the hillside,</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mark 7:17</t>
+          <t>Mark 5:12</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>And when he had entered the house and left the people, his disciples asked him about the parable.</t>
+          <t>and they begged him, saying, Send us to the pigs; let us enter them.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mark 7:18</t>
+          <t>Mark 5:13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>And he said to them, Then re you also without understanding Do you not see that whatever goes into a person from outside cannot defile him,</t>
+          <t>So he gave them permission. And the unclean spirits came out and entered the pigs; and the herd, numbering about two thousand, rushed down the steep bank into the sea and drowned in the sea.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Mark 7:20</t>
+          <t>Mark 5:14</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>And he said, What comes out of a person is what defiles him.</t>
+          <t>The herdsmen fled and told it in the city and in the country. And people came to see what it was that had happened.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Mark 7:24</t>
+          <t>Mark 5:15</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>And from there he arose and went away to the region of Tyre and Sidon. And he entered a house and did not want anyone to know, yet he could not be hidden.</t>
+          <t>And they came to Jesus and saw the demon-possesse d man, the one who had had c the legion, sitting there, d clothed and in his right mind, and they were afraid.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mark 7:25</t>
+          <t>Mark 5:16</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>But immediately a woman whose little daughter had an unclean spirit heard of him and came and fell down at his feet.</t>
+          <t>And those who had seen it described to them what had happened to the demon-possessed man and to the pigs.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Mark 7:27</t>
+          <t>Mark 5:17</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>And he said to her, Let the children be ed first, for it is not right to take the children's bread and hrow it to the dogs.</t>
+          <t>And e they began to beg Jesu s to depart from their region.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mark 7:28</t>
+          <t>Mark 5:18</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>But she answered him, Yes, Lord; yet even the dogs under the table eat the children's crumbs.</t>
+          <t>As he was getting into the boat, the man who had been possessed with demons begged him that he might be with him.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mark 7:29</t>
+          <t>Mark 5:19</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>And he said to her, For this statement you may o your way; the demon has left your daughter.</t>
+          <t>And he did not permit him but said to him, Go home to your friends and f tell them how much the Lord has done for you, and how he has had mercy on you.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mark 7:30</t>
+          <t>Mark 5:20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>And she went home and found the child lying in bed and the demon gone. Jesus Heals a Deaf Man</t>
+          <t>And he went away and began to proclaim in g the Decapolis how much Jesus had done for him, and everyone marveled. Jesus Heals a Woman and Jairus s Daughter</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mark 7:32</t>
+          <t>Mark 5:21</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>And they brought to him a man who was deaf and had a speech impediment, and they begged him to lay his hand on him.</t>
+          <t>And when Jesus had crossed again in the boat to the other side, a great crowd gathered about him, and he was beside the sea.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mark 7:33</t>
+          <t>Mark 5:22</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>And taking him aside from the crowd privately, he put his fingers into his ears, and after spitting touched his tongue.</t>
+          <t>h Then came one of i the rulers of the synagogue, Jairus by name, and seeing him, he fell at his feet</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mark 7:34</t>
+          <t>Mark 5:23</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>And looking up to heaven, he sighed and said to him, Ephphatha, that is, Be opened.</t>
+          <t>and implored him earnestly, saying, My little daughter is at the point of death. Come and j lay your hands on her, so that she may be made well and live.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mark 7:36</t>
+          <t>Mark 5:24</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>And Jesu16's charged them to tell no one. But the more he charged them, the more zealously they proclaimed it.</t>
+          <t>And he went with him. And a great crowd followed him and k thronged about him.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mark 7:37</t>
+          <t>Mark 5:25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>And they were astonished beyond measure, saying, He has done all things well. He even makes the deaf hear and the mute speak. Jesus Feeds the Four Thousand 8</t>
+          <t>And there was a woman l who had had a discharge of blood for twelve years,</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mark 8:4</t>
+          <t>Mark 5:26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>And his disciples answered him, How can one feed these people with bread here in this desolate place 5</t>
+          <t>and who had suffered much under many physicians, and had spent all that she had, and was no better but rather grew worse.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mark 8:5</t>
+          <t>Mark 5:27</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>And he asked them, How many loaves do you have They said, Seven. 6</t>
+          <t>She had heard the reports about Jesus and came up behind him in the crowd and touched his garment.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mark 8:6</t>
+          <t>Mark 5:28</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>And he directed the crowd to sit down on the ground. And he took the seven loaves, and having given thanks, he broke them and gave them to his disciples to set before the people; and they set them before the crowd. 7</t>
+          <t>For she said, If I touch even his garments, I will be made well.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mark 8:7</t>
+          <t>Mark 5:29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>And they had a few small fish. And having blessed them, he said that these also should be set before them. 8</t>
+          <t>m And immediately the flow of blood dried up, and she felt in her body that she was healed of her n disease.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mark 8:8</t>
+          <t>Mark 5:30</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>And they ate and were satisfied. And they took up the broken pieces left over, seven baskets full. 9</t>
+          <t>And Jesus, perceiving in himself that o power had gone out from him, immediately turned about in the crowd and said, Who touched my garments?</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Mark 8:9</t>
+          <t>Mark 5:31</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>And there were about four thousand people. And he sent them away.</t>
+          <t>And his disciples said to him, You see the crowd pressing around you, and yet you say, Who touched me?</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mark 8:10</t>
+          <t>Mark 5:32</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>And immediately he got into the boat with his disciples and went to the district of Dalmanutha. The Pharisees Demand a Sign</t>
+          <t>And he looked around to see who had done it.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mark 8:12</t>
+          <t>Mark 5:33</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>And he sighed deeply in his spirit and said, Why does this generation seek a sign Truly, I say to you, no sign will be given to this generation.</t>
+          <t>But the woman, knowing what had happened to her, came in fear and trembling and fell down before him and told him the whole truth.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mark 8:13</t>
+          <t>Mark 5:34</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>And he left them, got into the boat again, and went to the other side. The Leaven of the Pharisees and Herod</t>
+          <t>And he said to her, Daughter, p your faith has made you well; p go in peace, and be healed of your n disease.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mark 8:14</t>
+          <t>Mark 5:35</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Now they had forgotten to bring bread, and they had only one loaf with them in the boat.</t>
+          <t>While he was still speaking, there came from q the ruler s house some who said, Your daughter is dead. Why r trouble s the Teacher any further?</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mark 8:15</t>
+          <t>Mark 5:36</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>And he cautioned them, saying, Watch out; eware of he leaven of the Pharisees and the leaven of Herod.</t>
+          <t>But overhearin g what they said, Jesus said to q the ruler of the synagogue, Do not fear, only believe.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Mark 8:16</t>
+          <t>Mark 5:37</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>And they began discussing with one another the fact that they had no bread.</t>
+          <t>And he allowed no one to follow him except t Peter and James and u John the brother of James.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Mark 8:17</t>
+          <t>Mark 5:38</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>And Jesus, aware of this, said to them, Why are you discussing the fact that you have no bread Do you not yet perceive r understand Are your hearts hardened</t>
+          <t>They came to the house of the ruler of the synagogue, and Jesu s saw a commotion, people weeping and wailing loudly.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Mark 8:21</t>
+          <t>Mark 5:39</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>And he said to them, Do you not yet understand Jesus Heals a Blind Man at Bethsaida</t>
+          <t>And when he had entered, he said to them, v Why are you making a commotion and weeping? The child is not dead but w sleeping.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Mark 8:22</t>
+          <t>Mark 5:40</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>And they came to Bethsaida. And some people brought to him a blind man and begged him to touch him.</t>
+          <t>And they laughed at him. But he x put them all outside and took the child s father and mother and those who were with him and went in where the child was.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Mark 8:23</t>
+          <t>Mark 5:41</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>And he took the blind man by the hand and led him out of the village, and when he had spit on his eyes and laid his hands on him, he asked him, Do you see anything</t>
+          <t>y Taking her by the hand he said to her, Talitha cumi, which means, Little girl, I say to you, z arise.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mark 8:24</t>
+          <t>Mark 5:42</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>And he looked up and said, I see people, but they look like trees, walking.</t>
+          <t>And immediately the girl got up and began walking, and they were immediately overcome with amazement.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Mark 8:25</t>
+          <t>Mark 5:43</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Then Jesu's laid his hands on his eyes again; and he opened his eyes, his sight was restored, and he saw everything clearly.</t>
+          <t>And a he strictly charged them that no one should know this, and told them to give her something to eat. Jesus Rejected at Nazareth</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Mark 8:26</t>
+          <t>Mark 5:44</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>And he sent him to his home, saying, Do not even enter the village. Peter Confesses Jesus as the Christ</t>
+          <t>b He went away from there and came to c his hometown, and his disciples followed him.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Mark 8:28</t>
+          <t>Mark 6:2</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>And they told him, John the Baptist; and others say, Elijah; and others, one of the prophets.</t>
+          <t>And d on the Sabbath he began to teach in the synagogue, and e many who heard him were astonished, saying, Where did this man get these things? What is the wisdom given to him? How are such mighty works done by his hands?</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Mark 8:29</t>
+          <t>Mark 6:3</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>And he asked them, But who do you say that I am Peter answered him, You are the Christ.</t>
+          <t>f Is not this g the carpenter, the son of Mary and h brother of James and Joses and Judas and Simon? And are not his sisters here with us? And i they took offense at him.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mark 8:32</t>
+          <t>Mark 6:4</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>And he said this plainly. And Peter took him aside and began to rebuke him.</t>
+          <t>And Jesus said to them, j A prophet is not without honor, except in his hometown and among his relatives and in his own household.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mark 8:33</t>
+          <t>Mark 6:5</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>But turning and seeing his disciples, he rebuked Peter and said, Get behind me, Satan! For you re not setting your mind on the things of God, but on the things of man.</t>
+          <t>And k he could do no mighty work there, except that l he laid his hands on a few sick people and healed them.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mark 8:34</t>
+          <t>Mark 6:6</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>And calling the crowd to him with his disciples, he said to them, If anyone would come after me, let him eny himself and ake up his cross and follow me.</t>
+          <t>And m he marveled because of their unbelief. n And he went about among the villages teaching. Jesus Sends Out the Twelve Apostles</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mark 9:1</t>
+          <t>Mark 6:7</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>And he said to them, Truly, I say to you, there are some standing here who will not aste death ntil they see the kingdom of God after it has come ith power. The Transfiguration 2</t>
+          <t>o And he called the twelve and began to send them out two by two, and gave them authority over the unclean spirits.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mark 9:3</t>
+          <t>Mark 6:8</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>and his clothes became radiant, intensely white, as no on16 e on earth could bleach them. 4</t>
+          <t>He charged them to take nothing for their journey except a staf f no bread, no bag, no money in their belt s</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mark 9:4</t>
+          <t>Mark 6:9</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>And there appeared to them Elijah with Moses, and they were talking with Jesus. 5</t>
+          <t>but to p wear sandals and not put on two tunics.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Mark 9:5</t>
+          <t>Mark 6:10</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>And Peter said to Jesus, Rabbi, it is good that we are here. Let us make three tents, one for you and one for Moses and one for Elijah. 6</t>
+          <t>And he said to them, Whenever you enter a house, stay there until you depart from there.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Mark 9:6</t>
+          <t>Mark 6:11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>For he did not know what to say, for they were terrified. 7</t>
+          <t>And if any place will not receive you and they will not listen to you, when you leave, q shake off the dust that is on your feet r as a testimony against them.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Mark 9:7</t>
+          <t>Mark 6:12</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>And a cloud overshadowed them, and a voice came out of the cloud, This is my beloved Son; listen to him. 8</t>
+          <t>s So they went out and t proclaimed u that people should repent.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Mark 9:8</t>
+          <t>Mark 6:13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>And suddenly, looking around, they no long173 er saw anyone with them but Jesus only. 9</t>
+          <t>t And they cast out many demons and v anointed with oil many who were sick and healed them. The Death of John the Baptist</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Mark 9:11</t>
+          <t>Mark 6:14</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>And they asked him, Why do the scribes say that first Elijah must come</t>
+          <t>w King Herod heard of it, for Jesus name had become known. Som e said, x John the Baptis t has been raised from the dead. That is why these miraculous powers are at work in him.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mark 9:12</t>
+          <t>Mark 6:15</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>And he said to them, Elijah does come first o restore all things. And ow is it written of the Son of Man that he should uffer many things and e treated with contempt</t>
+          <t>x But others said, He is Elijah. And others said, He is y a prophet, like one of the prophets of old.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Mark 9:15</t>
+          <t>Mark 6:16</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>And immediately all the crowd, when they saw him, were greatly amazed and ran up to him and greeted him.</t>
+          <t>But when Herod heard of it, he said, John, whom I beheaded, has been raised.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mark 9:16</t>
+          <t>Mark 6:17</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>And he asked them, What are you arguing about with them</t>
+          <t>z For it was Herod who had sent and seized John and a bound him in prison for the sake of Herodias, his brother Philip s wife, because he had married her.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mark 9:17</t>
+          <t>Mark 6:18</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>And someone from the crowd answered him, Teacher, I rought my son to you, for he has a spirit that makes him mute.</t>
+          <t>z For John had been saying to Herod, b It is not lawful for you to have your brother s wife.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mark 9:18</t>
+          <t>Mark 6:19</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>And whenever it seizes him, it throws him down, and he foams and grinds his teeth and becomes rigid. So I asked your disciples to cast it out, and they were not able.</t>
+          <t>And Herodias had a grudge against him and wanted to put him to death. But she could not,</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Mark 9:19</t>
+          <t>Mark 6:20</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>And he answered them, O aithless generation, ow long am I to be with you How long am I to bear with you Bring him to me.</t>
+          <t>for Herod c feared John, knowing that he was a righteous and holy man, and he kept him safe. When he heard him, he was greatly perplexed, and yet he d heard him gladly.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mark 9:20</t>
+          <t>Mark 6:21</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>And they brought the boy to him. And when the spirit saw him, immediately it convulsed the boy, and he fell on the ground and rolled about, foaming at the mouth.</t>
+          <t>But an opportunity came when Herod e on his birthday f gave a banquet for his nobles and military commanders and the leading men of Galilee.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mark 9:21</t>
+          <t>Mark 6:22</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>And Jesus asked his father, How long has this been happening to him And he said, From childhood.</t>
+          <t>For when Herodias s daughter came in and danced, she pleased Herod and his guests. And the king said to the girl, Ask me for whatever you wish, and I will give it to you.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Mark 9:22</t>
+          <t>Mark 6:23</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>And it has often cast him into fire and into water, to destroy him. But if you can do anything, have compassion on us and help us.</t>
+          <t>And he vowed to her, Whatever you ask me, I will give you, g up to half of my kingdom.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mark 9:23</t>
+          <t>Mark 6:24</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>And Jesus said to him, If you can ! All things are possible for one who believes.</t>
+          <t>And she went out and said to her mother, For what should I ask? And she said, The head of John the Baptist.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Mark 9:24</t>
+          <t>Mark 6:25</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Immediately the father of the child cried ou t and said, I lieve; help my unbelief!</t>
+          <t>And she came in immediately with haste to the king and asked, saying, I want you to give me at once the head of John the Baptist on a platter.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Mark 9:25</t>
+          <t>Mark 6:26</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>And when Jesus saw that a crowd came running together, he rebuked the unclean spirit, saying to it, You mute and deaf spirit, I ommand you, come out of him and never enter him again.</t>
+          <t>And the king was exceedingly sorry, but because of his oaths and his guests he did not want to break his word to her.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Mark 9:26</t>
+          <t>Mark 6:27</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>And after crying out and convulsing him terribly, it came out, and the boy was like a corpse, so that most of them said, He is dead.</t>
+          <t>And immediately the king sent an executioner with orders to bring John s head. He went and beheaded him in the prison</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Mark 9:27</t>
+          <t>Mark 6:28</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>But Jesus took him by the hand and lifted him up, and he arose.</t>
+          <t>and brought his head on a platter and gave it to the girl, and the girl gave it to her mother.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Mark 9:28</t>
+          <t>Mark 6:29</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>And when he had entered the house, his disciples asked him privately, Why could we not cast it out</t>
+          <t>When his h disciples heard of it, they came and took his body and laid it in a tomb. Jesus Feeds the Five Thousand</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Mark 9:29</t>
+          <t>Mark 6:30</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>And he said to them, This kind cannot be driven out by anything but prayer. Jesus Again Foretells Death, Resurrection</t>
+          <t>i, j The apostles returned to Jesus and told him all that they had done and taught.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mark 9:31</t>
+          <t>Mark 6:31</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>for he was teaching his disciples, saying to them, The Son of Man is going to be delivered into the hands of men, and they will kill him. And when he is killed, fter three days he will rise.</t>
+          <t>And he said to them, Come away by yourselves to a desolate place and rest a while. For many were coming and going, and k they had no leisure even to eat.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Mark 9:33</t>
+          <t>Mark 6:32</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>And they came to Capernaum. And when he was in the house he asked them, What were you discussing on the way</t>
+          <t>l And they went away in m the boat to a desolate place by themselves.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mark 9:34</t>
+          <t>Mark 6:33</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>But they kept silent, for on the way they had argued with one another about who was the greatest.</t>
+          <t>Now many saw them going and n recognized them, and they ran there on foot from all the towns and got there ahead of them.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Mark 9:35</t>
+          <t>Mark 6:34</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>And he sat down and called the twelve. And he said to them, If anyone would be first, he must be last of all and servant of all.</t>
+          <t>When he went ashore he o saw a great crowd, and o he had compassion on them, because they were like sheep without a shepherd. And he began to teach them many things.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Mark 9:36</t>
+          <t>Mark 6:35</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>And he took a child and put him in the midst of them, and taking him in his arms, he said to them,</t>
+          <t>And when it grew late, his disciples came to him and said, This is a desolate place, and the hour is now late.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Mark 9:39</t>
+          <t>Mark 6:36</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>But Jesus said, Do not stop him, for no one who does a mighty work in my name will be able soon afterward to speak evil of me.</t>
+          <t>p Send them away to go into the surrounding countryside and villages and buy themselves something to eat.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Mark 10:2</t>
+          <t>Mark 6:37</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>And Pharisees came up and in order to test him asked, Is it lawful for a man to divorce his wife 3</t>
+          <t>But he answered them, q You give them something to eat. And r they said to him, s Shall we go and buy two hundred denari i worth of bread and give it to them to eat?</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mark 10:3</t>
+          <t>Mark 6:38</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>He answered them, What did Moses command you 4</t>
+          <t>And he said to them, How many loaves do you have? Go and see. And when they had found out, they said, t Five, and two fish.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mark 10:4</t>
+          <t>Mark 6:39</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>They said, Moses allowed a man to write a certificate of divorce and to send her away. 5</t>
+          <t>Then he commanded them all to sit down in groups on the green grass.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Mark 10:5</t>
+          <t>Mark 6:40</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>And Jesus said to them, Because of your ardness of heart he wrote you this commandment. 6</t>
+          <t>So they sat down in groups, by hundreds and by fifties.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Mark 10:10</t>
+          <t>Mark 6:41</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>And in the house the disciples asked him again about this matter.</t>
+          <t>And taking the five loaves and the two fish, he u looked up to heaven and v said a blessing and broke the loaves and gave them to the disciples to set before the people. And he divided the two fish among them all.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Mark 10:11</t>
+          <t>Mark 6:42</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>And he said to them, Whoever divorces his wife and marries another commits adultery against her,</t>
+          <t>And they all ate and were satisfied.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Mark 10:14</t>
+          <t>Mark 6:43</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>But when Jesus saw it, he was indignant and said to them, Let the children come to me; o not hinder them, for to such belongs the kingdom of God.</t>
+          <t>And they took up twelve baskets full of broken pieces and of the fish.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Mark 10:16</t>
+          <t>Mark 6:44</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>And he took them in his arms and blessed them, laying his hands on them. The Rich Young Man</t>
+          <t>And those who ate the loaves were five thousand men. Jesus Walks on the Water</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Mark 10:18</t>
+          <t>Mark 6:45</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>And Jesus said to him, Why do you call me good No one is good except God alone.</t>
+          <t>w Immediately he x made his disciples get into y the boat and go before him to the other side, z to Bethsaida, while he dismissed the crowd.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Mark 10:20</t>
+          <t>Mark 6:46</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>And he said to him, Teacher, all these I have kept from my youth.</t>
+          <t>And after he had taken leave of them, a he went up on the mountain to pray.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Mark 10:21</t>
+          <t>Mark 6:47</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>And Jesus, looking at him, loved him, and said to him, You lack one thing: go, ell all that you have and give to the poor, and you will have reasure in heaven; and come, follow me.</t>
+          <t>And when b evening came, the boat was out on the sea, and he was alone on the land.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Mark 10:23</t>
+          <t>Mark 6:48</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>And Jesus looked around and said to his disciples, How difficult it will be for those who have wealth to enter he kingdom of God!</t>
+          <t>And he saw that they were making headway painfully, for the wind was against them. And about b the fourth watch of the night he came to them, walking on the sea. c He meant to pass by them,</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Mark 10:24</t>
+          <t>Mark 6:49</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>And the disciples were amazed at his words. But Jesus said to them again, Children, ow difficult it is 1 o enter he kingdom of God!</t>
+          <t>but when they saw him walking on the sea they thought it was a ghost, and cried out,</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Mark 10:26</t>
+          <t>Mark 6:50</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>And they were exceedingly astonished, and said to him, Then who can be saved</t>
+          <t>for they all saw him and d were terrified. But immediately he spoke to them and said, e Take heart; it is I. e Do not be afraid.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Mark 10:27</t>
+          <t>Mark 6:51</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Jesus looked at them and said, With man it is impossible, but not with God. For all things are possible with God.</t>
+          <t>And he got into the boat with them, and the wind ceased. And they were utterly astounded,</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Mark 10:28</t>
+          <t>Mark 6:52</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Peter began to say to him, See, we have left everything and followed you.</t>
+          <t>for f they did not understand about the loaves, but their hearts g were hardened. Jesus Heals the Sick in Gennesaret</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Mark 10:29</t>
+          <t>Mark 6:53</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Jesus said, Truly, I say to you, here is no one who has left house or brothers or sisters or mother or father or children or lands, for my sake and or the gospel,</t>
+          <t>h When they had crossed over, they came to land at i Gennesaret and moored to the shore.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Mark 10:33</t>
+          <t>Mark 6:54</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>saying, See, e are going up to Jerusalem, and the Son of Man will be delivered over to the chief priests and the scribes, and they will ondemn him to death and eliver him over to the Gentiles.</t>
+          <t>And when they got out of the boat, the people immediately j recognized him</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Mark 10:36</t>
+          <t>Mark 6:55</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>And he said to them, What do you want me to do for you</t>
+          <t>and ran about the whole region and began to bring k the sick people l on their beds to wherever they heard he was.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Mark 10:37</t>
+          <t>Mark 6:56</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>And they said to him, Grant us to sit, one at your right hand and one at your left, in your glory.</t>
+          <t>And wherever he came, in villages, cities, or countryside, m they laid the sick in the marketplaces and implored him that they might touch even n the fringe of his garment. And o as many as touched it were made well. Traditions and Commandments</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Mark 10:38</t>
+          <t>Mark 6:57</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Jesus said to them, You do not know what you are asking. Are you able o drink the cup that I drink, or o be baptized with the baptism with which I am baptized</t>
+          <t>p Now when the Pharisees gathered to him, with some of the scribes q who had come from Jerusalem,</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Mark 10:39</t>
+          <t>Mark 7:2</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>And they said to him, We are able. And Jesus said to them, The cup that I drink ou will drink, and with the baptism with which I am baptized, ou will be baptized,</t>
+          <t>they saw that some of his disciples ate with hands that were r defiled, that is, unwashed.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Mark 10:41</t>
+          <t>Mark 7:3</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>And when the ten heard it, they began to be indignant at James and John.</t>
+          <t>(For the Pharisees and all the Jews do not eat unless they wash their hands properly, holding to s the tradition of t the elders,</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Mark 10:47</t>
+          <t>Mark 7:4</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>And when he heard that it was Jesus of Nazareth, he began to cry out and say, Jesus, Son of David, have mercy on me!</t>
+          <t>and when they come from the marketplace, they do not eat unless they wash. And there are many other traditions that they observe, such as u the washing of v cups and pots and copper vessels and dining couches. )</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Mark 10:48</t>
+          <t>Mark 7:5</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>And many rebuked him, telling him to be silent. But he cried out all the more, Son of David, have mercy on me!</t>
+          <t>And the Pharisees and the scribes asked him, Why do your disciples not walk according to s the tradition of t the elders, w but eat with r defiled hands?</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Mark 10:49</t>
+          <t>Mark 7:6</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>And Jesus stopped and said, Call him. And they called the blind man, saying to him, Take heart. Get up; he is calling you.</t>
+          <t>And he said to them, Well did Isaiah prophesy of you x hypocrites, as it is written, y This people honors me with their lips, but their heart is far from me;</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Mark 10:50</t>
+          <t>Mark 7:7</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>And throwing off his cloak, he sprang up and came to Jesus.</t>
+          <t>in vain do they worship me, teaching as z doctrines the commandments of men.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Mark 10:51</t>
+          <t>Mark 7:8</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>And Jesus said to him, What do you want me to do for you And the blind man said to him, Rabbi, let me recover my sight.</t>
+          <t>You leave the commandment of God and hold to the tradition of men.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Mark 10:52</t>
+          <t>Mark 7:9</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>And Jesus said to him, Go your way; our faith has ade you well. And immediately he recovered his sight and followed him on the way. The Triumphal Entry</t>
+          <t>And he said to them, You have a fine way of a rejecting the commandment of God in order to establish your tradition!</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Mark 11:2</t>
+          <t>Mark 7:10</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>and said to them, Go into the village in front of you, and immediately as you enter it you will find a colt tied, n which no one has ever sat. Untie it and bring it. 3</t>
+          <t>For Moses said, b Honor your father and your mother; and, c Whoever reviles father or mother must surely die.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Mark 11:4</t>
+          <t>Mark 7:11</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>And they went away and found a colt tied at a door outside in the street, and they untied it. 5</t>
+          <t>But you say, If a man tells his father or his mother, Whatever you would have gained from me is Corban</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Mark 11:5</t>
+          <t>Mark 7:12</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>And some of those standing there said to them, What are you doing, untying the colt 6</t>
+          <t>7:12 then you no long?er permit him to do anything for his father or mother,</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Mark 11:6</t>
+          <t>Mark 7:13</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>And they told them what Jesus had said, and they let them go. 7</t>
+          <t>thus d making void the word of God by your tradition that you have handed down. And many such things you do. What Defiles a Person</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Mark 11:7</t>
+          <t>Mark 7:14</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>And they brought the colt to Jesus and threw their cloaks on it, and he sat on it. 8</t>
+          <t>And he called the people to him again and said to them, e Hear me, all of you, and understand:</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Mark 11:8</t>
+          <t>Mark 7:15</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>And many spread their cloaks on the road, and others spread leafy branches that they had cut from the fields. 9</t>
+          <t>f There is nothing outside a person that by going into him can defile him, but the things that come out of a person are what defile him.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Mark 11:9</t>
+          <t>Mark 7:17</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>And those who went before and those who followed were shouting, Hosanna! Blessed is he who comes in the name of the Lord!</t>
+          <t>And when he had entered g the house and left the people, h his disciples asked him about the parable.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Mark 11:10</t>
+          <t>Mark 7:18</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Blessed is the coming kingdom of our father David! Hosanna in the highest!</t>
+          <t>And he said to them, Then i are you also without understanding? Do you not see that whatever goes into a person from outside cannot defile him,</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Mark 11:14</t>
+          <t>Mark 7:19</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>And he said to it, May no one ever eat fruit from you again. And his disciples heard it. Jesus Cleanses the Temple</t>
+          <t>since it enters not his heart j but his stomach, and is expelled?</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Mark 11:16</t>
+          <t>Mark 7:20</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>And he would not allow anyone to carry anything through the temple.</t>
+          <t>And he said, l What comes out of a person is what defiles him.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Mark 11:17</t>
+          <t>Mark 7:21</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>And he was teaching them and saying to them, Is it not written, My house shall be called a house of prayer for all the nations But ou have made it a den of robbers.</t>
+          <t>For from within, out of the heart of man, come evil thoughts, sexual immorality, theft, m murder, adultery,</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Mark 11:18</t>
+          <t>Mark 7:22</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>And the chief priests and the scribes heard it and were seeking a way to destroy him, for they feared him, because all the crowd was astonished at his teaching.</t>
+          <t>coveting, wickedness, deceit, n sensuality, o envy, p slander, q pride, r foolishness.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Mark 11:21</t>
+          <t>Mark 7:23</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>And Peter remembered and said to him, Rabbi, look! The fig tree that you cursed has withered.</t>
+          <t>s All these evil things come from within, and they defile a person. The Syrophoenician Woman s Faith</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Mark 11:22</t>
+          <t>Mark 7:24</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>And Jesus answered them, Have aith in God.</t>
+          <t>And from there he arose and went away to the region of Tyre and Sidon. And he entered a house and did not want anyone to know, yet he could not be hidden.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Mark 11:28</t>
+          <t>Mark 7:25</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>and they said to him, By what authority are you doing these things, or who gave you this authority to do them</t>
+          <t>But immediately a woman whose little daughter had an unclean spirit heard of him and came and fell down at his feet.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Mark 11:29</t>
+          <t>Mark 7:26</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Jesus said to them, I will ask you one question; answer me, and I will tell you by what authority I do these things.</t>
+          <t>t Now the woman was a u Gentile, v a Syrophoenician by birth. And she begged him to cast the demon out of her daughter.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Mark 11:31</t>
+          <t>Mark 7:27</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>And they discussed it with one another, saying, If we say, From heaven, he will say, Why then did you not believe him</t>
+          <t>And he said to her, Let the children be w fed first, for it is not right to take the children s bread and x throw it to the dogs.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Mark 11:32</t>
+          <t>Mark 7:28</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>But shall we say, From man they were afraid of the people, for they all held that John really was a prophet.</t>
+          <t>But she answered him, Yes, Lord; yet even the dogs under the table eat the children s y crumbs.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Mark 11:33</t>
+          <t>Mark 7:29</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>So they answered Jesus, We do not know. And Jesus said to them, Neither will I tell you by what authority I do these things. The Parable of the Tenants</t>
+          <t>And he said to her, For this statement you may z go your way; the demon has left your daughter.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Mark 12:11</t>
+          <t>Mark 7:30</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>his was the Lord's doing, - nd it is marvelous in our eyes</t>
+          <t>And she went home and found the child lying in bed and the demon gone. Jesus Heals a Deaf Man</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Mark 12:12</t>
+          <t>Mark 7:31</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>And they were seeking to arrest him but feared the people, for they perceived that he had told the parable against them. So they left him and went away. Paying Taxes to Caesar</t>
+          <t>a Then he returned from the region of Tyre and went through Sidon to b the Sea of Galilee, in the region of the c Decapolis.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Mark 12:14</t>
+          <t>Mark 7:32</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>And they came and said to him, Teacher, we know that you are true and do not care about anyone's opinion. For you are not swayed by appearances, but truly teach the way of God. Is it lawful to pay taxes to Caesar, or not Should we pay them, or should we not</t>
+          <t>And they brought to him d a man who was deaf and d had a speech impediment, and they begged him to e lay his hand on him.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Mark 12:15</t>
+          <t>Mark 7:33</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>But, knowing their hypocrisy, he said to them, Why ut me to the test Bring me denarius 1 nd let me look at it.</t>
+          <t>And f taking him aside from the crowd privately, he put his fingers into his ears, and f after spitting touched his tongue.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Mark 12:16</t>
+          <t>Mark 7:34</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>And they brought one. And he said to them, Whose likeness and inscription is this They said to him, Caesar's.</t>
+          <t>And g looking up to heaven, h he sighed and said to him, Ephphatha, that is, Be opened.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Mark 12:17</t>
+          <t>Mark 7:35</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Jesus said to them, Render to Caesar the things that are Caesar's, and to God the things that are God's. And they marveled at him. The Sadducees Ask About the Resurrection</t>
+          <t>d And his ears were opened, his tongue was released, and he spoke plainly.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Mark 12:18</t>
+          <t>Mark 7:36</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>And Sadducees came to him, who say that there is no resurrection. And they asked him a question, saying,</t>
+          <t>And i Jesu s charged them to tell no one. But j the more he charged them, the more zealously they proclaimed it.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Mark 12:19</t>
+          <t>Mark 7:37</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Teacher, Moses wrote for us that if a man's brother dies and leaves a wife, but leaves no child, the ma16 n must take the widow and raise up offspring for his brother.</t>
+          <t>And they were k astonished beyond measure, saying, He has done all things well. He even makes the deaf hear and the mute speak. Jesus Feeds the Four Thousand</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Mark 12:20</t>
+          <t>Mark 7:38</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>There were seven brothers; the first took a wife, and when he died left no offspring.</t>
+          <t>l In those days, when again a great crowd had gathered, and they had nothing to eat, he called his disciples to him and said to them,</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Mark 12:21</t>
+          <t>Mark 7:39</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>And the second took her, and died, leaving no offspring. And the third likewise.</t>
+          <t>m I have compassion on the crowd, because they have been with me now three days and have nothing to eat.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Mark 12:22</t>
+          <t>Mark 7:40</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>And the seven left no offspring. Last of all the woman also died.</t>
+          <t>And if I send them away hungry to their homes, they will faint on the way. And some of them have come from far away.</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Mark 12:23</t>
+          <t>Mark 8:4</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>In the resurrection, when they rise again, whose wife will she be For the seven had her as wife.</t>
+          <t>And his disciples answered him, How can one feed these people with bread here in this desolate place?</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Mark 12:24</t>
+          <t>Mark 8:5</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Jesus said to them, Is this not the reason you are wrong, because ou know neither the Scriptures nor he power of God</t>
+          <t>And he asked them, How many loaves do you have? They said, n Seven.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Mark 12:29</t>
+          <t>Mark 8:6</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Jesus answered, The most important is, Hear, O Israel: The Lord our God, he Lord is one.</t>
+          <t>And he directed the crowd to sit down on the ground. And he took the seven loaves, and o having given thanks, he broke them and gave them to his disciples to set before the people; and they set them before the crowd.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Mark 12:32</t>
+          <t>Mark 8:7</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>And the scribe said to him, You are right, Teacher. You have truly said that he is one, and there is no other besides him.</t>
+          <t>And they had a few small fish. And p having blessed them, he said that these also should be set before them.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Mark 12:33</t>
+          <t>Mark 8:8</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>And to love him with all the heart and with all the understanding and with all the strength, and to love one's neighbor as oneself, is much more than all whole burnt offerings and sacrifices.</t>
+          <t>And q they ate and were satisfied. And they took up the broken pieces left over, n seven baskets full.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Mark 12:34</t>
+          <t>Mark 8:9</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>And when Jesus saw that he answered wisely, he said to him, You are not far from the kingdom of God. And after that no one dared to ask him any more questions. Whose Son Is the Christ</t>
+          <t>And there were about four thousand people. And he sent them away.</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Mark 12:42</t>
+          <t>Mark 8:10</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>And a poor widow came and put in two small copper coins, which make a penny.</t>
+          <t>And immediately he got into r the boat with his disciples and went to the district of s Dalmanutha. The Pharisees Demand a Sign</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Mark 12:43</t>
+          <t>Mark 8:11</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>And he called his disciples to him and said to them, Truly, I say to you, his poor widow has put in more than all those who are contributing to the offering box.</t>
+          <t>t The Pharisees came and began to argue with him, u seeking from him v a sign from heaven w to test him.</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Mark 13:2</t>
+          <t>Mark 8:12</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>And Jesus said to him, Do you see these great buildings There will not be left here one stone upon another that will not be thrown down. Signs of the End of the Age 3</t>
+          <t>And x he sighed deeply y in his spirit and said, Why does this generation seek a sign? Truly, I say to you, no sign will be given to this generation.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Mark 13:3</t>
+          <t>Mark 8:13</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>And as he sat on the Mount of Olives opposite the temple, Peter and James and John and Andrew asked him privately, 4</t>
+          <t>And z he left them, got into the boat again, and went to the other side. The Leaven of the Pharisees and Herod</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Mark 13:4</t>
+          <t>Mark 8:14</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tell us, when will these things be, and what will be the sign when all these things are about to be accomplished 5</t>
+          <t>Now they had forgotten to bring bread, and they had only one loaf with them in the boat.</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Mark 13:5</t>
+          <t>Mark 8:15</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>And Jesus began to say to them, See that no one leads you astray. 6</t>
+          <t>And he cautioned them, saying, Watch out; a beware of b the leaven of the Pharisees and the leaven of c Herod.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Mark 13:23</t>
+          <t>Mark 8:16</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>But e on guard; I have told you all things beforehand. The Coming of the Son of Man</t>
+          <t>And they began discussing with one another the fact that they had no bread.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Mark 14:2</t>
+          <t>Mark 8:17</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>for they said, Not during the feast, lest there be an uproar from the people. Jesus Anointed at Bethany 3</t>
+          <t>And d Jesus, aware of this, said to them, Why are you discussing the fact that you have no bread? e Do you not yet perceive f or understand? f Are your hearts hardened?</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Mark 14:4</t>
+          <t>Mark 8:18</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>There were some who said to themselves indignantly, Why was the ointment wasted like that 5</t>
+          <t>g Having eyes do you not see, and having ears do you not hear? And do you not remember?</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Mark 14:5</t>
+          <t>Mark 8:19</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>For this ointment could have been sold for more than three hundred denari i and given to the poor. And they scolded her. 6</t>
+          <t>When I broke h the five loaves for the five thousand, how many baskets full of broken pieces did you take up? They said to him, Twelve.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Mark 14:6</t>
+          <t>Mark 8:20</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>But Jesus said, Leave her alone. Why do you trouble her She has done a beautiful thing to me. 7</t>
+          <t>And i the seven for the four thousand, how many baskets full of broken pieces did you take up? And they said to him, Seven.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Mark 14:11</t>
+          <t>Mark 8:21</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>And when they heard it, they were glad and promised to give him money. And he sought an opportunity to betray him. The Passover with the Disciples</t>
+          <t>And he said to them, Do you not yet understand? Jesus Heals a Blind Man at Bethsaida</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Mark 14:13</t>
+          <t>Mark 8:22</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>And he sent two of his disciples and said to them, Go into the city, and a man carrying a jar of water will meet you. Follow him,</t>
+          <t>And they came j to Bethsaida. And some people brought to him a blind man and begged him to touch him.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Mark 14:16</t>
+          <t>Mark 8:23</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>And the disciples set out and went to the city and found it just as he had told them, and they prepared the Passover.</t>
+          <t>And k he took the blind man by the hand and led him out of the village, and when k he had l spit on his eyes and m laid his hands on him, he asked him, Do you see anything?</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Mark 14:18</t>
+          <t>Mark 8:24</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>And as they were reclining at table and eating, Jesus said, Truly, I say to you, one of you will betray me, ne who is eating with me.</t>
+          <t>And he looked up and said, I see people, but they look like trees, walking.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Mark 14:19</t>
+          <t>Mark 8:25</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>They began to be sorrowful and to say to him one after another, Is it I</t>
+          <t>Then Jesu s laid his hands on his eyes again; and he opened his eyes, his sight was restored, and he saw everything clearly.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Mark 14:20</t>
+          <t>Mark 8:26</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>He said to them, It is ne of the twelve, ne who is dipping bread into the dish with me.</t>
+          <t>And he sent him to his home, saying, n Do not even enter the village. Peter Confesses Jesus as the Christ</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Mark 14:23</t>
+          <t>Mark 8:27</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>And he took a cup, and when he had given thanks he gave it to them, and they all drank of it.</t>
+          <t>o And Jesus went on with his disciples to the villages of Caesarea Philippi. And on the way he asked his disciples, Who do people say that I am?</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Mark 14:24</t>
+          <t>Mark 8:28</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>And he said to them, This is my lood of the 1 ov173 enant, which is poured out for any.</t>
+          <t>And they told him, p John the Baptist; and others say, q Elijah; and others, one of the prophets.</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Mark 14:27</t>
+          <t>Mark 8:29</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>And Jesus said to them, You will all fall away, for it is written, I will trike the shepherd, and the sheep will be scattered.</t>
+          <t>And he asked them, But who do you say that I am? Peter answered him, r You are s the Christ.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Mark 14:30</t>
+          <t>Mark 8:30</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>And Jesus said to him, Truly, I tell you, this very night, before he rooster crows twice, you will deny me three times.</t>
+          <t>t And he strictly charged them to tell no one about him. Jesus Foretells His Death and Resurrection</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Mark 14:31</t>
+          <t>Mark 8:31</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>But he said emphatically, If I must die with you, I will not deny you. And they all said the same. Jesus Prays in Gethsemane</t>
+          <t>u And he began to teach them that v the Son of Man must w suffer many things and x be rejected by the elders and the chief priests and the scribes and be killed, and y after three days rise again.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Mark 14:33</t>
+          <t>Mark 8:32</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>And he took with him Peter and James and John, and began to be greatly distressed and troubled.</t>
+          <t>And he said this z plainly. And Peter took him aside and began to rebuke him.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Mark 14:34</t>
+          <t>Mark 8:33</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>And he said to them, My soul is very sorrowful, even to death. Remain here and atch.</t>
+          <t>But turning and seeing his disciples, he rebuked Peter and said, a Get behind me, Satan! For you b are not setting your mind on the things of God, but on the things of man.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Mark 14:35</t>
+          <t>Mark 8:34</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>And going a little farther, he fell on the ground and prayed that, if it were possible, the hour might pass from him.</t>
+          <t>And calling the crowd to him with his disciples, he said to them, If anyone would come after me, let him c deny himself and d take up his cross and follow me.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Mark 14:36</t>
+          <t>Mark 8:35</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>And he said, Abba, Father, ll things are possible for you. Remove his cup from me. Yet not what I will, but what you will.</t>
+          <t>For d whoever would save his life</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Mark 14:37</t>
+          <t>Mark 8:36</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>And he came and found them sleeping, and he said to Peter, Simon, are you asleep Could you not watch one hour</t>
+          <t>will lose it, but whoever loses his life for my sake e and the gospel s will save it.</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mark 14:39</t>
+          <t>Mark 8:37</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>And again he went away and prayed, saying the same words.</t>
+          <t>f For what does it profit a man to gain the whole world and forfeit his soul?</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Mark 14:40</t>
+          <t>Mark 8:38</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>And again he came and found them sleeping, for their eyes were very heavy, and they did not know what to answer him.</t>
+          <t>For g what can a man give in return for his soul?</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Mark 14:41</t>
+          <t>Mark 8:39</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>And he came the third time and said to them, Are you still sleeping and taking your rest It is enough; he hour has come. The Son of Man is betrayed into the hands of sinners.</t>
+          <t>For h whoever is ashamed of me and of my words in this i adulterous and sinful generation, of him will the Son of Man also be ashamed j when he comes in the glory of his Father with k the holy angels.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Mark 14:44</t>
+          <t>Mark 9:1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Now the betrayer had given them a sign, saying, The one I will kiss is the man. Seize him and lead him away under guard.</t>
+          <t>And he said to them, Truly, I say to you, there are some standing here who will not l taste death m until they see the kingdom of God after it has come n with power. The Transfiguration</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Mark 14:45</t>
+          <t>Mark 9:2</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>And when he came, he went up to him at once and said, Rabbi! And he kissed him.</t>
+          <t>o And after six days Jesus took with him p Peter and James and John, and led them up a high mountain by themselves. And he was q transfigured before them,</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Mark 14:46</t>
+          <t>Mark 9:3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>And they laid hands on him and seized him.</t>
+          <t>and r his clothes became radiant, intensely white, as no on e on earth could bleach them.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Mark 14:47</t>
+          <t>Mark 9:4</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>But one of those who stood by drew his sword and struck the servan16 t of the high priest and cut off his ear.</t>
+          <t>And there appeared to them Elijah with Moses, and they were talking with Jesus.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Mark 14:48</t>
+          <t>Mark 9:5</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>And Jesus said to them, Have you come out as against a robber, with swords and clubs to capture me</t>
+          <t>And Peter said to Jesus, s Rabbi, it is good that we are here. Let us make three t tents, one for you and one for Moses and one for Elijah.</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Mark 14:51</t>
+          <t>Mark 9:6</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>And a young man followed him, with nothing but a linen cloth about his body. And they seized him,</t>
+          <t>For u he did not know what to say, for they were terrified.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Mark 14:52</t>
+          <t>Mark 9:7</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>but he left the linen cloth and ran away naked. Jesus Before the Council</t>
+          <t>And v a cloud overshadowed them, and v a voice came out of the cloud, w This is my beloved Son;</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Mark 14:55</t>
+          <t>Mark 9:8</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Now the chief priests and the whole counci16 l were seeking testimony against Jesus to put him to death, but they found none.</t>
+          <t>x listen to him.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Mark 14:57</t>
+          <t>Mark 9:8</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>And some stood up and bore false witness against him, saying,</t>
+          <t>And suddenly, looking around, they no long?er saw anyone with them but Jesus only.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Mark 14:59</t>
+          <t>Mark 9:9</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Yet even about this their testimony did not agree.</t>
+          <t>y And as they were coming down the mountain, z he charged them to tell no one what they had seen, a until the Son of Man had risen from the dead.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Mark 14:60</t>
+          <t>Mark 9:10</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>And the high priest stood up in the midst and asked Jesus, Have you no answer to make What is it that these men testify against you</t>
+          <t>b So they kept the matter to themselves, c questioning what this rising from the dead might mean.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Mark 14:61</t>
+          <t>Mark 9:11</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>But he remained silent and made no answer. Again the high priest asked him, Are you the Christ, the Son of the Blessed</t>
+          <t>And they asked him, Why do the scribes say d that first Elijah must come?</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Mark 14:62</t>
+          <t>Mark 9:12</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>And Jesus said, I m, and ou will see the Son of Man eated at the right hand of Power, and oming with the clouds of heaven.</t>
+          <t>And he said to them, Elijah does come first e to restore all things. And f how is it written of the Son of Man that he should g suffer many things and h be treated with contempt?</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Mark 14:63</t>
+          <t>Mark 9:13</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>And the high priest tore his garments and said, What further witnesses do we need</t>
+          <t>But I tell you that Elijah has come, and i they did to him whatever they pleased, as it is written of him. Jesus Heals a Boy with an Unclean Spirit</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Mark 14:64</t>
+          <t>Mark 9:14</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>You have heard his blasphemy. What is your decision And they all condemned him as deserving death.</t>
+          <t>j And when they came to the disciples, they saw a great crowd around them, and scribes arguing with them.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Mark 14:67</t>
+          <t>Mark 9:15</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>and seeing Peter warming himself, she looked at him and said, You also were with the Nazarene, Jesus.</t>
+          <t>And immediately all the crowd, when they saw him, k were greatly amazed and ran up to him and greeted him.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Mark 14:68</t>
+          <t>Mark 9:16</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>But he denied it, saying, I neither know nor understand what you mean. And he went out into the gatewa y and the rooster crowed.</t>
+          <t>And he asked them, What are you arguing about with them?</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Mark 14:69</t>
+          <t>Mark 9:17</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>And the servant girl saw him and began again to say to the bystanders, This man is one of them.</t>
+          <t>And someone from the crowd answered him, Teacher, I brought my son to you, for he has l a spirit that makes him mute.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Mark 14:70</t>
+          <t>Mark 9:18</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>But again he denied it. And after a little while the bystanders again said to Peter, Certainly you are one of them, for you are a Galilean.</t>
+          <t>And whenever it seizes him, it throws him down, and he foams and grinds his teeth and becomes rigid. So I asked your disciples to cast it out, and m they were not able.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Mark 14:71</t>
+          <t>Mark 9:19</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>But he began to invoke a curse on himself and to swear, I o not know this man of whom you speak.</t>
+          <t>And he answered them, O n faithless generation, n how long am I to be with you? How long am I to bear with you? Bring him to me.</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Mark 14:72</t>
+          <t>Mark 9:20</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>And immediately the rooster crowed a second time. And Peter remembered how Jesus had said to him, Before the rooster crows twice, you will eny me three times. And he broke down and wept. Jesus Delivered to Pilate</t>
+          <t>And they brought the boy to him. And when the spirit saw him, immediately it o convulsed the boy, and he fell on the ground and rolled about, foaming at the mouth.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Mark 15:3</t>
+          <t>Mark 9:21</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>And the chief priests accused him of many things. 4</t>
+          <t>And Jesus asked his father, How long has this been happening to him? And he said, From childhood.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Mark 15:4</t>
+          <t>Mark 9:22</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>And Pilate again asked him, Have you no answer to make See how many charges they bring against you. 5</t>
+          <t>And it has often cast him into fire and into water, to destroy him. But p if you can do anything, have compassion on us and help us.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Mark 15:5</t>
+          <t>Mark 9:23</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>But Jesus made no further answer, so that Pilate was amazed. Pilate Delivers Jesus to Be Crucified 6</t>
+          <t>And Jesus said to him, p If you can! q All things are possible for one who believes.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Mark 15:7</t>
+          <t>Mark 9:24</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>And among the rebels in prison, who had committed murder in the insurrection, there was a man called Barabbas. 8</t>
+          <t>Immediately the father of the child cried ou t and said, I believe; r help my unbelief!</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Mark 15:8</t>
+          <t>Mark 9:25</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>And the crowd came up and began to ask Pilate to do as he usually did for them. 9</t>
+          <t>And when Jesus saw that s a crowd came running together, he rebuked the unclean spirit, saying to it, t You mute and deaf spirit, I command you, come out of him and never enter him again.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Mark 15:9</t>
+          <t>Mark 9:26</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>And he answered them, saying, Do you want me to release for you the King of the Jews</t>
+          <t>And after crying out and o convulsing him terribly, it came out, and the boy was like a corpse, so that most of them said, He is dead.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Mark 15:10</t>
+          <t>Mark 9:27</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>For he perceived that it was out of envy that the chief priests had delivered him up.</t>
+          <t>But Jesus u took him by the hand and lifted him up, and he arose.</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Mark 15:11</t>
+          <t>Mark 9:28</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>But the chief priests stirred up the crowd to have him release for them Barabbas instead.</t>
+          <t>And when he had v entered the house, his disciples asked him privately, Why could we not cast it out?</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Mark 15:12</t>
+          <t>Mark 9:29</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>And Pilate again said to them, Then what shall I do with the man you call the King of the Jews</t>
+          <t>And he said to them, This kind cannot be driven out by anything but prayer. Jesus Again Foretells Death, Resurrection</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Mark 15:13</t>
+          <t>Mark 9:30</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>And they cried out again, Crucify him.</t>
+          <t>w They went on from there and passed through Galilee. And he did not want anyone to know,</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Mark 15:14</t>
+          <t>Mark 9:31</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>And Pilate said to them, Why What evil has he done But they shouted all the more, Crucify him.</t>
+          <t>for he was teaching his disciples, saying to them, The Son of Man is going to be delivered into the hands of men, and they will kill him. And when he is killed, x after three days he will rise.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Mark 15:15</t>
+          <t>Mark 9:32</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>So Pilate, wishing to satisfy the crowd, released for them Barabbas, and having scourge16 d Jesus, he delivered him to be crucified. Jesus Is Mocked</t>
+          <t>y But they did not understand the saying, and were afraid to ask him. Who Is the Greatest?</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Mark 15:17</t>
+          <t>Mark 9:33</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>And they clothed him in a purple cloak, and twisting together a crown of thorns, they put it on him.</t>
+          <t>And z they came to Capernaum. And when he was in the house a he asked them, What were you discussing on the way?</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Mark 15:18</t>
+          <t>Mark 9:34</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>And they began to salute him, Hail, King of the Jews!</t>
+          <t>But they kept silent, for on the way b they had argued with one another about who was the greatest.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Mark 15:19</t>
+          <t>Mark 9:35</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>And they were striking his head with a reed and spitting on him and kneeling down in homage to him.</t>
+          <t>And he sat down and called the twelve. And he said to them, c If anyone would be first, he must be last of all and servant of all.</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Mark 15:20</t>
+          <t>Mark 9:36</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>And when they had mocked him, they stripped him of the purple cloak and put his own clothes on him. And they led him out to crucify him. The Crucifixion</t>
+          <t>And he took a child and put him in the midst of them, and d taking him in his arms, he said to them,</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Mark 15:23</t>
+          <t>Mark 9:37</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>And they offered him wine mixed with myrrh, but he did not take it.</t>
+          <t>e Whoever receives one such child in my name receives me, and e whoever receives me, receives not me but him who sent me. Anyone Not Against Us Is for Us</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Mark 15:24</t>
+          <t>Mark 9:38</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>And they crucified him and divided his garments among them, casting lots for them, to decide what each should take.</t>
+          <t>f John said to him, Teacher, we saw someone g casting out demons in your name, and h we tried to stop him, because he was not following us.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Mark 15:25</t>
+          <t>Mark 9:39</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>And it was the third hou16 r when they crucified him.</t>
+          <t>But Jesus said, Do not stop him, for no one who does a mighty work in my name will be able soon afterward to speak evil of me.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Mark 15:26</t>
+          <t>Mark 9:40</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>And the inscription of the charge against him read, The King of the Jews.</t>
+          <t>i For the one who is not against us is for us.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Mark 15:27</t>
+          <t>Mark 9:41</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>And with him they crucified two robbers, one on his right and one on his left.</t>
+          <t>For truly, I say to you, j whoever gives you a cup of water to drink because</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Mark 15:29</t>
+          <t>Mark 9:42</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>And those who passed by derided him, wagging their heads and saying, Aha! You who would destroy the temple and rebuild it in three days,</t>
+          <t>you belong to Christ will by no means lose his reward. Temptations to Sin</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Mark 15:30</t>
+          <t>Mark 9:43</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>save yourself, and come down from the cross!</t>
+          <t>k Whoever causes one of l these little ones who believe in me to sin,</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Mark 15:31</t>
+          <t>Mark 9:44</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>So also the chief priests with the scribes mocked him to one another, saying, He saved others; he cannot save himself.</t>
+          <t>m it would be better for him if a great millstone were hung around his neck and he were thrown into the sea.</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Mark 15:32</t>
+          <t>Mark 9:45</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Let the Christ, the King of Israel, come down now from the cross that we may see and believe. Those who were crucified with him also reviled him. The Death of Jesus</t>
+          <t>n And if your hand causes you to sin, cut it off. It is better for you to enter life crippled than with two hands to go to o hell,</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Mark 15:33</t>
+          <t>Mark 9:46</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>And when the sixth hou r had come, there was darkness over the whole land until the ninth hour.</t>
+          <t>to p the unquenchable fire.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Mark 15:34</t>
+          <t>Mark 9:47</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>And at the ninth hour Jesus cried with a loud voice, Eloi, Eloi, lema sabachthani which means, My God, my God, why have you forsaken me</t>
+          <t>q And if your foot causes you to sin, cut it off. It is better for you to enter life lame than with two feet to be thrown into o hell.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Mark 15:35</t>
+          <t>Mark 9:48</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>And some of the bystanders hearing it said, Behold, he is calling Elijah.</t>
+          <t>r And if your eye causes you to sin, tear it out. It is better for you to enter the kingdom of God with one eye than with two eyes to be thrown into s hell,</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Mark 15:36</t>
+          <t>Mark 9:49</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>And someone ran and filled a sponge with sour wine, put it on a reed and gave it to him to drink, saying, Wait, let us see whether Elijah will come to take him down.</t>
+          <t>where t their worm does not die and the fire is not quenched.</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Mark 15:37</t>
+          <t>Mark 9:50</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>And Jesus uttered a loud cry and breathed his last.</t>
+          <t>For everyone will be salted with fire.</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Mark 15:38</t>
+          <t>Mark 9:51</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>And the curtain of the temple was torn in two, from top to bottom.</t>
+          <t>v Salt is good, w but if the salt has lost its saltiness, how will you make it salty again? x Have salt in yourselves, and y be at peace with one another. Teaching About Divorce</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Mark 15:40</t>
+          <t>Mark 9:52</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>There were also women looking on from a distance, among whom were Mary Magdalene, and Mary the mother of James the younger and of Joses, and Salome.</t>
+          <t>z And he left there and went a to the region of Judea and beyond the Jordan, and crowds gathered to him again. And again, as was his custom, he taught them.</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Mark 15:41</t>
+          <t>Mark 10:2</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>When he was in Galilee, they followed him and ministered to him, and there were also many other women who came up with him to Jerusalem. Jesus Is Buried</t>
+          <t>And Pharisees came up and in order b to test him asked, c Is it lawful for a man to divorce his wife?</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Mark 15:43</t>
+          <t>Mark 10:3</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Joseph of Arimathea, a respected member of the council, who was also himself looking for the kingdom of God, took courage and went to Pilate and asked for the body of Jesus.</t>
+          <t>He answered them, What did Moses command you?</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Mark 15:44</t>
+          <t>Mark 10:4</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pilate was surprised to hear that he should have already died. And summoning the centurion, he asked him whether he was already dead.</t>
+          <t>They said, d Moses allowed a man to write a certificate of divorce and to send her away.</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Mark 15:45</t>
+          <t>Mark 10:5</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>And when he learned from the centurion that he was dead, he granted the corpse to Joseph.</t>
+          <t>And Jesus said to them, Because of your e hardness of heart he wrote you this commandment.</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Mark 15:46</t>
+          <t>Mark 10:6</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>And Josep16 h bought a linen shroud, and taking him down, wrapped him in the linen shroud and laid him in a tomb that had been cut out of the rock. And he rolled a stone against the entrance of the tomb.</t>
+          <t>But f from the beginning of creation, God made them g male and female.</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Mark 16:2</t>
+          <t>Mark 10:7</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>And very early on the first day of the week, when the sun had risen, they went to the tomb. 3</t>
+          <t>h Therefore a man shall leave his father and mother and hold fast to his wife,</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Mark 16:3</t>
+          <t>Mark 10:8</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>And they were saying to one another, Who will roll away the stone for us from the entrance of the tomb 4</t>
+          <t>and i the two shall become one flesh. So they are no long?er two but one flesh.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Mark 16:4</t>
+          <t>Mark 10:9</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>And looking up, they saw that the stone had been rolled bac k it was very large. 5</t>
+          <t>j What therefore God has joined together, let not man separate.</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Mark 16:5</t>
+          <t>Mark 10:10</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>And entering the tomb, they saw a young man sitting on the right side, dressed in a white robe, and they were alarmed. 6</t>
+          <t>And in the house the disciples asked him again about this matter.</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Mark 16:6</t>
+          <t>Mark 10:11</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>And he said to them, Do not be alarmed. You seek Jesus of Nazareth, who was crucified. He has risen; he is not here. See the place where they laid him. 7</t>
+          <t>And he said to them, k Whoever divorces his wife and marries another commits adultery against her,</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Mark 16:7</t>
+          <t>Mark 10:12</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>But go, tell his disciples and Peter that he is going before you to Galilee. There you will see him, just as he told you. 8</t>
+          <t>and l if she divorces her husband and marries another, she commits adultery. Let the Children Come to Me</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Mark 16:8</t>
+          <t>Mark 10:13</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>And they went out and fled from the tomb, for trembling and astonishment had seized them, and they said nothing to anyone, for they were afraid. [Some of the earliest manuscripts do not include</t>
+          <t>m And they were bringing children to him that he might touch them, and the disciples n rebuked them.</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Mark 16:9</t>
+          <t>Mark 10:14</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Now when he rose early on the first day of the week, he appeared first to Mary Magdalene, from whom he had cast out seven demons.</t>
+          <t>But when Jesus saw it, he was indignant and said to them, o Let the children come to me; p do not hinder them, for to such belongs the kingdom of God.</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Mark 16:11</t>
+          <t>Mark 10:15</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>But when they heard that he was alive and had been seen by her, they would not believe it. Jesus Appears to Two Disciples</t>
+          <t>q Truly, I say to you, whoever does not r receive the kingdom of God like a child shall not enter it.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Mark 16:14</t>
+          <t>Mark 10:16</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Afterward he appeared to the eleven themselves as they were reclining at table, and he rebuked them for their unbelief and hardness of heart, because they had not believed those who saw him after he had risen.</t>
+          <t>And s he took them in his arms and blessed them, t laying his hands on them. The Rich Young Man</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Mark 16:15</t>
+          <t>Mark 10:17</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>And he said to them, Go into all the world and roclaim the gospel to he whole creation.</t>
+          <t>u And as he was setting out on his journey, a man ran up and v knelt before him and asked him, Good Teacher, what must I do to w inherit eternal life?</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Mark 16:19</t>
+          <t>Mark 10:18</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>So then the Lord Jesus, after he had spoken to them, was taken up into heaven and sat down at the right hand of God.</t>
+          <t>And Jesus said to him, Why do you call me good? No one is good except God alone.</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
+          <t>Mark 10:19</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>You know the commandments: x Do not murder, Do not commit adultery, Do not steal, Do not bear false witness, Do not defraud, Honor your father and mother.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Mark 10:20</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>And he said to him, Teacher, y all these I have kept from my youth.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Mark 10:21</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>And Jesus, z looking at him, a loved him, and said to him, You lack one thing: go, b sell all that you have and give to the poor, and you will have c treasure in heaven; and come, follow me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Mark 10:22</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>d Disheartened by the saying, he went away sorrowful, for he had great possessions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Mark 10:23</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>And Jesus e looked around and said to his disciples, f How difficult it will be for those who have wealth to enter g the kingdom of God!</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Mark 10:24</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>And the disciples h were amazed at his words. But Jesus said to them again, i Children, j how difficult it is</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Mark 10:25</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>to enter g the kingdom of God!</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Mark 10:26</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>It is easier for a camel to go through the eye of a needle than for a rich person to enter g the kingdom of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Mark 10:26</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>And they were exceedingly astonished, and said to him, Then who can be saved?</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Mark 10:27</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Jesus k looked at them and said, l With man it is impossible, but not with God. For all things are possible with God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Mark 10:28</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Peter began to say to him, See, m we have left everything and followed you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Mark 10:29</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Jesus said, Truly, I say to you, n there is no one who has left house or brothers or sisters or mother or father or children or lands, for my sake and o for the gospel,</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Mark 10:30</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>who will not receive a hundredfold p now in this time, houses and brothers and sisters and mothers and children and lands, q with persecutions, and in r the age to come eternal life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Mark 10:31</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>But s many who are first will be last, and the last first. Jesus Foretells His Death a Third Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Mark 10:32</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>t And they were on the road, going up to Jerusalem, and u Jesus was walking ahead of them. And v they were amazed, and those who followed were afraid. And taking the twelve again, he began to tell them what was to happen to him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Mark 10:33</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>saying, See, w we are going up to Jerusalem, and the Son of Man will be delivered over to the chief priests and the scribes, and they will x condemn him to death and y deliver him over to the Gentiles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Mark 10:34</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>And they will z mock him and a spit on him, and flog him and kill him. And b after three days he will rise. The Request of James and John</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Mark 10:35</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>c And James and John, d the sons of Zebedee, came up to him and said to him, Teacher, we want you to do for us e whatever we ask of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Mark 10:36</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>And he said to them, f What do you want me to do for you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Mark 10:37</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>And they said to him, Grant us g to sit, one at your right hand and one at your left, h in your glory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Mark 10:38</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Jesus said to them, i You do not know what you are asking. Are you able j to drink the cup that I drink, or k to be baptized with the baptism with which I am baptized?</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Mark 10:39</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>And they said to him, We are able. And Jesus said to them, l The cup that I drink m you will drink, and with the baptism with which I am baptized, n you will be baptized,</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Mark 10:40</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>but to sit at my right hand or at my left is not mine to grant, o but it is for those for whom it has been p prepared.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Mark 10:41</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>And when the ten heard it, they began to be indignant at James and John.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Mark 10:42</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>q And Jesus called them to him and said to them, You know that those who are considered rulers of the Gentiles r lord it over them, and their great ones exercise authority over them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Mark 10:43</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>But s it shall not be so among you. But whoever would be great among you must be your servant,</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Mark 10:44</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>and whoever would be first among you must be t slave</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Mark 10:45</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>of all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Mark 10:46</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>For even the Son of Man came not to be served but u to serve, and v to give his life as a ransom for w many. Jesus Heals Blind Bartimaeus</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Mark 10:47</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>x And they came to Jericho. And y as he was leaving Jericho with his disciples and a great crowd, Bartimaeus, z a blind beggar, the son of Timaeus, was sitting by the roadside.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Mark 10:47</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>And when he heard that it was a Jesus of Nazareth, he began to cry out and say, Jesus, Son of David, have mercy on me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Mark 10:48</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>And many b rebuked him, telling him to be silent. But he cried out all the more, Son of David, have mercy on me!</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Mark 10:49</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>And Jesus stopped and said, Call him. And they called the blind man, saying to him, c Take heart. Get up; he is calling you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Mark 10:50</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>And throwing off his d cloak, he sprang up and came to Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Mark 10:51</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>And Jesus said to him, e What do you want me to do for you? And the blind man said to him, f Rabbi, let me recover my sight.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Mark 10:52</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>And Jesus said to him, Go your way; g your faith has h made you well. And immediately he recovered his sight and followed him on the way. The Triumphal Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Mark 10:53</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>i Now when they drew near to Jerusalem, to j Bethphage and Bethany, at k the Mount of Olives, Jesu s sent l two of his disciples</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Mark 11:2</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>and said to them, Go into the village in front of you, and immediately as you enter it you will find a colt tied, m on which no one has ever sat. Untie it and bring it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Mark 11:3</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>If anyone says to you, Why are you doing this? say, The Lord has need of it and will send it back here immediately.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Mark 11:4</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>And they went away and found a colt tied at a door outside in the street, and they untied it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Mark 11:5</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>And some of those standing there said to them, What are you doing, untying the colt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Mark 11:6</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>And they told them what Jesus had said, and they let them go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Mark 11:7</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>And they brought the colt to Jesus and threw their cloaks on it, and he sat on it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Mark 11:8</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>And many n spread their cloaks on the road, and others spread leafy branches that they had cut from the fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Mark 11:9</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>And those who went before and those who followed were shouting, o Hosanna! p Blessed is he who comes in the name of the Lord!</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Mark 11:10</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Blessed is q the coming r kingdom of s our father r David! o Hosanna t in the highest!</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Mark 11:11</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>u And he entered Jerusalem and went into the temple. And when he had looked around at everything, as it was already late, v he went out to Bethany with the twelve. Jesus Curses the Fig Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Mark 11:12</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>w On the following day, when they came from Bethany, x he was hungry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Mark 11:13</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>y And seeing in the distance a fig tree in leaf, he went to see if he could find anything on it. When he came to it, he found nothing but leaves, for z it was not the season for figs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Mark 11:14</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>And he said to it, May no one ever eat fruit from you again. And his disciples heard it. Jesus Cleanses the Temple</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Mark 11:15</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>a And they came to Jerusalem. And he entered the temple and began to drive out those who sold and those who bought in the temple, and he overturned the tables of b the money-changers and the seats of those who sold c pigeons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Mark 11:16</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>And he would not allow anyone to carry anything through the temple.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Mark 11:17</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>And he was teaching them and saying to them, Is it not written, d My house shall be called a house of prayer for all the nations? But e you have made it a den of robbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Mark 11:18</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>And the chief priests and the scribes heard it and f were seeking a way to destroy him, for they feared him, because g all the crowd was astonished at his teaching.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Mark 11:19</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>h And when evening came the y went out of the city. The Lesson from the Withered Fig Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Mark 11:20</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>i As they passed by in the morning, they saw the fig tree withered away to its roots.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Mark 11:21</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>And Peter remembered and said to him, j Rabbi, look! The fig tree that you cursed has withered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Mark 11:22</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>And Jesus answered them, Have k faith in God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Mark 11:23</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>l Truly, I say to you, whoever says to this mountain, m Be taken up and thrown into the sea, and does not n doubt in his heart, but o believes that what he says will come to pass, it will be done for him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Mark 11:24</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Therefore I tell you, p whatever you ask in prayer, o believe that you q have received</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Mark 11:25</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>it, and it will be yours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Mark 11:26</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>And whenever r you stand praying, s forgive, t if you have anything against anyone, so that u your Father also who is in heaven may forgive you your trespasses. The Authority of Jesus Challenged</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Mark 11:27</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>v And they came again to Jerusalem. And as he was walking in the temple, the chief priests and the scribes and the elders came to him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Mark 11:28</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>and they said to him, w By what authority are you doing these things, or who gave you this authority to do them?</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Mark 11:29</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Jesus said to them, I will ask you one question; answer me, and I will tell you by what authority I do these things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Mark 11:30</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Was the baptism of John x from heaven or from man? Answer me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Mark 11:31</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>And they discussed it with one another, saying, If we say, From heaven, he will say, y Why then did you not believe him?</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Mark 11:32</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>But shall we say, From man? z they were afraid of the people, for they all held that John really was a a prophet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Mark 11:33</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>So they answered Jesus, We do not know. And Jesus said to them, Neither will I tell you by what authority I do these things. The Parable of the Tenants</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Mark 11:34</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>b And he began to speak to them in parables. A man planted c a vineyard d and put a fence around it and dug a pit for the winepress and built a tower, and e leased it to tenants and f went into another country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Mark 11:35</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>When the season came, he sent a servant</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Mark 11:36</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>to the tenants to get from them some of the fruit of the vineyard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Mark 11:37</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>g And they took him and beat him and sent him away empty-handed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Mark 11:38</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>g Again h he sent to them another servant, and i they struck him on the head and j treated him shamefully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Mark 11:39</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>g And he sent another, and him they killed. And so with many others: some they beat, and some they killed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Mark 11:40</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>He had still one other, k a beloved son. l Finally he sent him to them, saying, They will respect my son.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Mark 11:41</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>But those tenants said to one another, m This is the heir. Come, n let us kill him, and the inheritance will be ours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Mark 11:42</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>And they took him and killed him and o threw him out of the vineyard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Mark 11:43</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>What will the owner of the vineyard do? p He will q come and destroy the tenants and r give the vineyard to others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Mark 11:44</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>s Have you not read t this Scripture: u The stone that the builders rejected has become the cornerstone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Mark 12:11</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>this was the Lord s doing, and it is marvelous in our eyes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Mark 12:12</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>And v they were seeking to arrest him w but feared the people, for they perceived that he had told the parable against them. So they x left him and went away. Paying Taxes to Caesar</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Mark 12:13</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>y And they sent to him some of z the Pharisees and some of z the Herodians, to a trap him in his talk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Mark 12:14</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>And they came and said to him, Teacher, b we know that you are true and do not care about anyone s opinion. For c you are not swayed by appearances, but truly teach d the way of God. Is it lawful to pay e taxes to f Caesar, or not? Should we pay them, or should we not?</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Mark 12:15</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>But, knowing g their hypocrisy, he said to them, Why h put me to the test? Bring me i a denarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Mark 12:16</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>and let me look at it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Mark 12:16</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>And they brought one. And he said to them, Whose likeness and inscription is this? They said to him, Caesar s.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Mark 12:17</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Jesus said to them, j Render to Caesar the things that are Caesar s, and to God the things that are God s. And they marveled at him. The Sadducees Ask About the Resurrection</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Mark 12:18</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>And k Sadducees came to him, l who say that there is no resurrection. And they asked him a question, saying,</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Mark 12:19</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Teacher, Moses wrote for us that m if a man s brother dies and leaves a wife, but leaves no child, the ma n must take the widow and raise up offspring for his brother.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Mark 12:20</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>There were seven brothers; the first took a wife, and when he died left no offspring.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Mark 12:21</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>And the second took her, and died, leaving no offspring. And the third likewise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Mark 12:22</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>And the seven left no offspring. Last of all the woman also died.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Mark 12:23</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>In the resurrection, when they rise again, whose wife will she be? For the seven had her as wife.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Mark 12:24</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Jesus said to them, Is this not the reason you are wrong, because n you know neither the Scriptures nor o the power of God?</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Mark 12:25</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>For when they rise from the dead, they neither p marry nor p are given in marriage, but are like angels in heaven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Mark 12:26</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>And as for the dead being raised, q have you not read in r the book of Moses, in s the passage about the bush, how God spoke to him, saying, t I am the God of Abraham, and the God of Isaac, and the God of Jacob?</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Mark 12:27</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>He is not God of the dead, but of the living. You are quite wrong. The Great Commandment</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Mark 12:28</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>u And one of the scribes came up and heard them disputing with one another, and seeing that he answered them well, asked him, Which commandment is the most important of all?</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Mark 12:29</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Jesus answered, The most important is, v Hear, O Israel: The Lord our God, w the Lord is one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Mark 12:30</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>And you shall love the Lord your God with all your heart and with all your soul and with all your mind and with all your strength.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Mark 12:31</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>x The second is this: y You shall love your neighbor as yourself. There is no other commandment z greater than these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Mark 12:32</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>And the scribe said to him, You are right, Teacher. You have truly said that w he is one, and a there is no other besides him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Mark 12:33</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>And to love him with all the heart and with all b the understanding and with all the strength, and to love one s neighbor as oneself, c is much more than all d whole burnt offerings and sacrifices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Mark 12:34</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>And when Jesus saw that he answered wisely, he said to him, You are not far from the kingdom of God. e And after that no one dared to ask him any more questions. Whose Son Is the Christ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Mark 12:35</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>f And as g Jesus taught in the temple, he said, How can the scribes say that h the Christ is the son of David?</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Mark 12:36</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>David himself, i in the Holy Spirit, declared, j The Lord said to my Lord, Sit at my right hand, until I put your enemies k under your feet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Mark 12:37</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>David himself calls him Lord. So l how is he his son? And the great throng m heard him gladly. Beware of the Scribes</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Mark 12:38</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>n And in his teaching he said, Beware of the scribes, who like to walk around in long robes and like greetings in the marketplaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Mark 12:39</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>and have the best seats in the synagogues and o the places of honor at feasts,</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Mark 12:40</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>p who devour widows houses and q for a pretense make long prayers. They will receive the greater condemnation. The Widow s Offering</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Mark 12:41</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>r And he sat down opposite s the treasury and watched the people t putting money into the offering box. Many rich people put in large sums.</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Mark 12:42</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>And a poor widow came and put in two u small copper coins, which make a penny.</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Mark 12:43</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>And he called his disciples to him and said to them, Truly, I say to you, v this poor widow has put in more than all those who are contributing to the offering box.</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Mark 12:44</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>For they all contributed out of their abundance, but she out of her w poverty has put in everything she had, all x she had to live on. Jesus Foretells Destruction of the Temple</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Mark 12:45</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>y And as he came out of the temple, one of his disciples said to him, Look, Teacher, what wonderful stones and what wonderful buildings!</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Mark 13:2</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>And Jesus said to him, Do you see these great buildings? z There will not be left here one stone upon another that will not be thrown down. Signs of the End of the Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Mark 13:3</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>And as he sat on a the Mount of Olives opposite the temple, b Peter and James and John and c Andrew asked him d privately,</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Mark 13:4</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Tell us, e when will these things be, and what will be the sign when all these things are about to be accomplished?</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Mark 13:5</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>And Jesus began to say to them, f See that no one leads you astray.</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Mark 13:6</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>g Many will come in my name, saying, h I am he! and they will lead many astray.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Mark 13:7</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>And when you hear of wars and rumors of wars, i do not be alarmed. This j must take place, but the end is not yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Mark 13:8</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>For k nation will rise against nation, and l kingdom against kingdom. There will be m earthquakes in various places; there will be n famines. These are but the beginning of the birth pains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Mark 13:9</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>o But p be on your guard. For they will deliver you over to councils, and you will be beaten q in synagogues, and you will stand before r governors and s kings for my sake, t to bear witness before them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Mark 13:10</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>And the gospel must first be proclaimed u to all nations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Mark 13:11</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>And when they bring you to trial and deliver you over, v do not be anxious beforehand what you are to say, but say w whatever is given you in that hour, x for it is not you who speak, but the Holy Spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Mark 13:12</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>y And brother will deliver brother over to death, and the father his child, and children will rise against parents and have them put to death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Mark 13:13</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>z And you will be hated by all for my name s sake. a But the one who endures to the end will be saved. The Abomination of Desolation</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Mark 13:14</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>But when you see b the abomination of desolation standing where he ought not to be, then let those who are in Judea flee to the mountains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Mark 13:15</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>d Let the one who is on e the housetop not go down, nor enter his house, to take anything out,</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Mark 13:16</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>and let the one who is in the field not turn back to take his cloak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Mark 13:17</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>And f alas for women who are pregnant and for those who are nursing infants in those days!</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Mark 13:18</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Pray that it may not happen in winter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Mark 13:19</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>For in those days there will be g such h tribulation as has not been i from the beginning of the creation that j God created until now, and never will be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Mark 13:20</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>And if the Lord had not cut short the days, no human being would be saved. But for k the sake of the elect, whom l he chose, he shortened the days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Mark 13:21</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>And m then if anyone says to you, Look, here is the Christ! or Look, there he is! do not believe it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Mark 13:22</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>n For false christs and false prophets will arise and o perform signs and wonders, p to lead astray, if possible, q the elect.</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Mark 13:23</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>But r be on guard; s I have told you all things beforehand. The Coming of the Son of Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Mark 13:24</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>But in those days, after t that tribulation, u the sun will be darkened, and the moon will not give its light,</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Mark 13:25</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>and v the stars will be falling from heaven, and the powers in the heavens will be shaken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Mark 13:26</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>And then they will see w the Son of Man coming in clouds x with great power and glory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Mark 13:27</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>And then y he will send out the angels and z gather a his elect from b the four winds, from c the ends of the earth d to the ends of heaven. The Lesson of the Fig Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Mark 13:28</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>From the fig tree learn its lesson: as soon as its branch becomes tender and puts out its leaves, you know that summer is near.</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Mark 13:29</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>So also, when you see these things taking place, you know that he is near, e at the very gates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Mark 13:30</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>f Truly, I say to you, this generation will not pass away until all these things take place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Mark 13:31</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>g Heaven and earth will pass away, but h my words will not pass away. No One Knows That Day or Hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Mark 13:32</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>But concerning that day or that hour, i no one knows, not even the angels in heaven, j nor the Son, k but only the Father.</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Mark 13:33</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>l Be on guard, m keep awake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Mark 13:34</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>For you do not know when the time will come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Mark 13:35</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>n It is like a man o going on a journey, when he leaves home and puts his servants</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Mark 13:36</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>in charge, p each with his work, and commands q the doorkeeper to stay awake.</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Mark 13:37</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>r Therefore stay awak e for you do not know when the master of the house will come, s in the evening, or s at midnight, or t when the rooster crows,</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Mark 13:38</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>or u in the mornin g</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Mark 13:39</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>lest v he come suddenly and w find you asleep.</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Mark 13:40</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>And what I say to you I say to all: r Stay awake. The Plot to Kill Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Mark 13:41</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>x It was now two days before y the Passover and the Feast of Unleavened Bread. And the chief priests and the scribes z were seeking how to arrest him by stealth and kill him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Mark 14:2</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>for they said, Not during the feast, a lest there be an uproar from the people. Jesus Anointed at Bethany</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Mark 14:3</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>b And while he was at c Bethany in the house of Simon the leper, as he was reclining at table, a woman came with an alabaster flask of ointment of pure nard, very costly, and she broke the flask and poured it over his head.</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Mark 14:4</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>There were some who said to themselves indignantly, Why was the ointment wasted like that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Mark 14:5</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>For this ointment could have been sold for more than three hundred denari i and d given to the poor. And they e scolded her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Mark 14:6</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>But Jesus said, Leave her alone. Why do you trouble her? She has done a beautiful thing to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Mark 14:7</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>For f you always have the poor with you, and whenever g you want, you can do good for them. But h you will not always have me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Mark 14:8</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>i She has done what she could; she has anointed my body beforehand j for burial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Mark 14:9</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>And truly, I say to you, wherever k the gospel is proclaimed in the whole world, what she has done will be told l in memory of her. Judas to Betray Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Mark 14:10</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>m Then n Judas Iscariot, who was one of the twelve, n went to the chief priests in order to betray him to them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Mark 14:11</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>And when they heard it, they were glad and promised to give him money. And he sought an opportunity to o betray him. The Passover with the Disciples</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Mark 14:12</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>p And on q the first day of Unleavened Bread, when they r sacrificed the Passover lamb, his disciples said to him, Where will you have us go and prepare for you to eat the Passover?</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Mark 14:13</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>And he sent s two of his disciples and said to them, Go into the city, and a man carrying a jar of water will meet you. Follow him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Mark 14:14</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>and wherever he enters, say to the master of the house, t The Teacher says, Where is u my guest room, where I may eat the Passover with my disciples?</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Mark 14:15</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>And he will show you v a large upper room furnished and ready; there prepare for us.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Mark 14:16</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>And the disciples set out and went to the city and found it just as he had told them, and they prepared the Passover.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Mark 14:17</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>w And when it was evening, he came with the twelve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Mark 14:18</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>And as they were reclining at table and eating, x Jesus said, Truly, I say to you, one of you will betray me, y one who is eating with me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Mark 14:19</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>They began to be sorrowful and to say to him one after another, Is it I?</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Mark 14:20</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>He said to them, It is z one of the twelve, y one who is dipping bread into the dish with me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Mark 14:21</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>For the Son of Man goes a as it is written of him, but b woe to that man by whom the Son of Man is betrayed! c It would have been better for that man if he had not been born. Institution of the Lord s Supper</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Mark 14:22</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>d And as they were eating, he took bread, and after e blessing it broke it and gave it to them, and said, Take; f this is my body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Mark 14:23</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>And he took a cup, and when he had g given thanks he gave it to them, and they all drank of it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Mark 14:24</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>And he said to them, f This is my h blood of the</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Mark 14:25</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>cov?enant, which is poured out for i many.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Mark 14:26</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Truly, I say to you, I will not drink again of the fruit of the vine until that day when I drink it new in the kingdom of God. Jesus Foretells Peter s Denial</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Mark 14:27</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>j And when they had sung a hymn, k they went out to l the Mount of Olives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Mark 14:27</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>And Jesus said to them, You will all fall away, for it is written, I will m strike the shepherd, and the sheep will be scattered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Mark 14:28</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>But after I am raised up, n I will go before you to Galilee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Mark 14:29</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>o Peter said to him, Even though they all fall away, I will not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Mark 14:30</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>And p Jesus said to him, Truly, I tell you, this very night, before q the rooster crows twice, you will deny me three times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Mark 14:31</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>But r he said emphatically, If I must die with you, I will not deny you. And they all said the same. Jesus Prays in Gethsemane</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Mark 14:32</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>s And they went k to a place called Gethsemane. And he said to his disciples, Sit here while I pray.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Mark 14:33</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>And he took with him t Peter and James and John, and began u to be greatly distressed and troubled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Mark 14:34</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>And he said to them, v My soul is very sorrowful, even to death. Remain here and w watch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Mark 14:35</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>And going a little farther, he fell on the ground x and prayed that, if it were possible, y the hour might pass from him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Mark 14:36</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>And he said, z Abba, Father, a all things are possible for you. Remove b this cup from me. c Yet not what I will, but what you will.</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Mark 14:37</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>And he came and found them sleeping, and he said to Peter, Simon, are you asleep? Could you not watch one hour?</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Mark 14:38</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>w Watch and d pray that you may not e enter into temptation. The spirit indeed is willing, but the flesh is weak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Mark 14:39</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>And again he went away and prayed, f saying the same words.</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Mark 14:40</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>And again he came and found them sleeping, for g their eyes were very heavy, and h they did not know what to answer him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Mark 14:41</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>And he came the third time and said to them, Are you still sleeping and taking your rest? i It is enough; j the hour has come. k The Son of Man is betrayed into the hands of sinners.</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Mark 14:42</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Rise, let us be going; see, my betrayer is at hand. Betrayal and Arrest of Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Mark 14:43</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>l And immediately, while he was still speaking, m Judas came, one of the twelve, and with him a crowd with swords and clubs, from the chief priests and the scribes and the elders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Mark 14:44</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Now the betrayer had given them a sign, saying, The one I will kiss is the man. Seize him and lead him away under guard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Mark 14:45</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>And when he came, he went up to him at once and said, n Rabbi! And he o kissed him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Mark 14:46</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>And they laid hands on him and seized him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Mark 14:47</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>But one of those who stood by drew his p sword and struck the servan t of the high priest and cut off his ear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Mark 14:48</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>And Jesus said to them, Have you come out as against a robber, with swords and clubs to capture me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Mark 14:49</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>q Day after day I was with you in the temple r teaching, and you did not seize me. But s let the Scriptures be fulfilled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Mark 14:50</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>t And they all left him and fled. A Young Man Flees</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Mark 14:51</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>And a young man followed him, with nothing but u a linen cloth about his body. And they seized him,</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Mark 14:52</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>but he left the linen cloth and ran away naked. Jesus Before the Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Mark 14:53</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>v And w they led Jesus to the high priest. And all the chief priests and the elders and the scribes came together.</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Mark 14:54</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>w And x Peter had followed him at a distance, y right into z the courtyard of the high priest. And he was sitting with a the guards and b warming himself at the fire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Mark 14:55</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Now the chief priests and the whole counci l were seeking testimony against Jesus to put him to death, but they found none.</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Mark 14:56</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>c For many bore false witness against him, but their testimony d did not agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Mark 14:57</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>And some stood up and bore false witness against him, saying,</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Mark 14:58</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>e We heard him say, f I will destroy this temple g that is made with hands, and in three days I will build another, h not made with hands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Mark 14:59</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Yet even about this their testimony did not agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Mark 14:60</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>And the high priest stood up in the midst and asked Jesus, Have you no answer to make? What is it that these men testify against you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Mark 14:61</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>But i he remained silent and made no answer. j Again the high priest asked him, Are you k the Christ, the Son of l the Blessed?</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Mark 14:62</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>And Jesus said, I am, and m you will see the Son of Man n seated at the right hand of Power, and m coming with the clouds of heaven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Mark 14:63</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>And the high priest o tore his garments and said, What further witnesses do we need?</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Mark 14:64</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>You have heard p his blasphemy. What is your decision? And they q all condemned him as r deserving death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Mark 14:65</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>s And some began t to spit on him and u to cover his face and to strike him, saying to him, Prophesy! And the guards received him v with blows. Peter Denies Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Mark 14:66</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>w And as Peter was below in the courtyard, one of the servant girls of the high priest came,</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Mark 14:67</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>and seeing Peter x warming himself, she looked at him and said, You also were with the Nazarene, Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Mark 14:68</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>But he denied it, saying, I neither know nor understand what you mean. And he went out into the gatewa y and y the rooster crowed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Mark 14:69</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>And the servant girl saw him and began again to say to the bystanders, This man is one of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Mark 14:70</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>But again he denied it. And after a little while the bystanders again said to Peter, Certainly you are one of them, for you are a Galilean.</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Mark 14:71</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>But he began to invoke a curse on himself and to swear, I do not know this man of whom you speak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Mark 14:72</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>And immediately the rooster crowed z a second time. And Peter remembered how Jesus had said to him, a Before the rooster crows twice, you will b deny me three times. And he broke down and wept. Jesus Delivered to Pilate</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Mark 14:73</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>c And as soon as it was morning, the chief priests d held a consultation with the elders and scribes and the whole council. And e they bound Jesus and f led him away and g delivered him over to h Pilate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Mark 14:74</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>i And Pilate asked him, j Are you the King of the Jews? And he answered him, k You have said so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Mark 15:3</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>And the chief priests accused him of many things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Mark 15:4</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>And Pilate again asked him, l Have you no answer to make? See how many charges they bring against you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Mark 15:5</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>But Jesus l made no further answer, so that Pilate was amazed. Pilate Delivers Jesus to Be Crucified</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Mark 15:6</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>m Now at the feast he used to release for them one prisoner for whom they asked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Mark 15:7</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>And among the rebels in prison, who had n committed murder o in the insurrection, there was a man called Barabbas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Mark 15:8</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>And the crowd came up and began to ask Pilate to do as he usually did for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Mark 15:9</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>And he answered them, saying, Do you want me to release for you the King of the Jews?</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Mark 15:10</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>For he perceived that p it was out of envy that the chief priests had delivered him up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Mark 15:11</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>But the chief priests stirred up the crowd to have him release for them Barabbas instead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Mark 15:12</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>And Pilate again said to them, Then what shall I do with q the man you call the King of the Jews?</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Mark 15:13</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>And they cried out again, Crucify him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Mark 15:14</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>And Pilate said to them, Why? r What evil has he done? But they shouted all the more, Crucify him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Mark 15:15</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>So Pilate, wishing to satisfy the crowd, released for them Barabbas, and having s scourge d Jesus, he delivered him to be crucified. Jesus Is Mocked</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Mark 15:16</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>t And the soldiers led him away inside u the palace, and they called together the whole w battalion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Mark 15:17</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>And they clothed him in x a purple cloak, and twisting together a crown of thorns, they put it on him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Mark 15:18</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>And they began to salute him, y Hail, King of the Jews!</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Mark 15:19</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>And they were striking his head with a reed and z spitting on him and a kneeling down in homage to him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Mark 15:20</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>And when they had b mocked him, they stripped him of x the purple cloak and put his own clothes on him. And they c led him out to crucify him. The Crucifixion</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Mark 15:21</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>d And they compelled a passerby, Simon of Cyrene, who was coming in from the country, the father of Alexander and Rufus, to carry his cross.</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Mark 15:22</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>e And they brought him to the place called Golgotha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Mark 15:23</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>And they offered him wine mixed with f myrrh, but he did not take it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Mark 15:24</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>And they crucified him and g divided his garments among them, casting lots for them, to decide what each should take.</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Mark 15:25</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>And h it was the third hou r when they crucified him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Mark 15:26</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>And the inscription of the charge against him read, i The King of the Jews.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Mark 15:27</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>And with him they crucified two j robbers, k one on his right and one on his left.</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Mark 15:29</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>And l those who passed by derided him, m wagging their heads and saying, n Aha! o You who would destroy the temple and rebuild it in three days,</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Mark 15:30</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>save yourself, and come down from the cross!</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Mark 15:31</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>So also the chief priests with the scribes mocked him to one another, saying, p He saved others; q he cannot save himself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Mark 15:32</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Let r the Christ, s the King of Israel, come down now from the cross that we may t see and believe. u Those who were crucified with him also reviled him. The Death of Jesus</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Mark 15:33</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>And when the sixth hou r had come, there was darkness over the whole land until the ninth hour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Mark 15:34</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>And at the ninth hour Jesus v cried with a loud voice, w Eloi, Eloi, lema sabachthani? which means, My God, my God, why have you forsaken me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Mark 15:35</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>And some of the bystanders hearing it said, Behold, he is calling Elijah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Mark 15:36</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>And someone ran and filled a sponge with x sour wine, put it on a reed y and gave it to him to drink, saying, Wait, let us see whether Elijah will come to take him down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Mark 15:37</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>And Jesus z uttered a loud cry and a breathed his last.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Mark 15:38</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>And b the curtain of the temple was torn in two, from top to bottom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Mark 15:39</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>c And when the centurion, who stood facing him, saw that in this way h e breathed his last, he said, d Truly this man was the So n of God!</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Mark 15:40</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>There were also e women looking on f from a distance, among whom were g Mary Magdalene, and Mary the mother of James the younger and of Joses, and i Salome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Mark 15:41</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>When he was in Galilee, they followed him and g ministered to him, and there were also many other women who j came up with him to Jerusalem. Jesus Is Buried</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Mark 15:42</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>k And when evening had come, since it was l the day of Preparation, that is, the day before the Sabbath,</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Mark 15:43</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Joseph of Arimathea, m a respected member of the council, who n was also himself looking for the kingdom of God, took courage and went to Pilate and asked for the body of Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Mark 15:44</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Pilate was surprised to hear that he should have already died. And summoning o the centurion, he asked him whether he was already dead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Mark 15:45</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>And when he learned from o the centurion that he was dead, he granted the corpse to Joseph.</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Mark 15:46</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>And Josep h bought p a linen shroud, and taking him down, wrapped him in the linen shroud and q laid him in a tomb r that had been cut out of the rock. And he rolled s a stone against the entrance of the tomb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Mark 15:47</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>t Mary Magdalene and Mary the mother of Joses saw where he was laid. The Resurrection</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Mark 15:48</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>u, v When the Sabbath was past, w Mary Magdalene, w Mary the mother of James, and i Salome x bought spices, so that they might go and anoint him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Mark 16:2</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>And very early on the first day of the week, when the sun had risen, they went to the tomb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Mark 16:3</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>And they were saying to one another, Who will roll away y the stone for us from the entrance of the tomb?</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Mark 16:4</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>And looking up, they saw that the stone had been rolled bac k z it was very large.</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Mark 16:5</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>And a entering the tomb, they saw a young man sitting on the right side, b dressed in c a white robe, and d they were alarmed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Mark 16:6</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>And he said to them, d Do not be alarmed. You seek Jesus of Nazareth, who was crucified. He has risen; he is not here. See the place where they laid him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Mark 16:7</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>But go, tell his disciples and Peter that e he is going before you to Galilee. There you will see him, e just as he told you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Mark 16:8</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>And they went out and fled from the tomb, for trembling and astonishment had seized them, and they said nothing to anyone, for they were afraid. Jesus Appears to Mary Magdalene</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Mark 16:9</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Now when he rose early on the first day of the week, f he appeared first to g Mary Magdalene, g from whom he had cast out seven demons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Mark 16:10</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>h She went and told those who had been with him, i as they j mourned and wept.</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Mark 16:11</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>But when they heard that he was alive and had been seen by her, they k would not believe it. Jesus Appears to Two Disciples</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Mark 16:12</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>l After these things m he appeared in n another form to two of them, as they were walking into the country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Mark 16:13</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>o And they went back and told the rest, but they did not believe them. The Great Commission</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Mark 16:14</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Afterward m he appeared p to the eleven themselves as they were reclining at table, and he rebuked them for their q unbelief and r hardness of heart, because s they had not believed those who saw him after he had risen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Mark 16:15</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>And he said to them, t Go into all the world and u proclaim the gospel to v the whole creation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Mark 16:16</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>w Whoever believes and is x baptized y will be saved, but z whoever w does not believe will be condemned.</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Mark 16:17</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>And a these signs will accompany those who believe: b in my name they will cast out demons; c they will speak in new tongues;</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Mark 16:18</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>d they will pick up serpents with their hands; and if they drink any deadly poison, it will not hurt them; e they will lay their hands f on the sick, and they will recover.</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Mark 16:19</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>So then the Lord Jesus, g after he had spoken to them, h was taken up into heaven and i sat down at the right hand of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
           <t>Mark 16:20</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>And they went out and preached everywhere, while the Lord worked with them and confirmed the message by accompanying signs.]]</t>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>And they went out and preached everywhere, while j the Lord worked with them and confirmed k the message l by accompanying signs.</t>
         </is>
       </c>
     </row>
